--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="122">
   <si>
     <t>Doi</t>
   </si>
@@ -460,6 +460,286 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,   Elena M.%Bertinato%NULL%1,   Simone%Birocchi%NULL%1,   Carolina%Brizio%NULL%1,   Daniele%Malavolta%NULL%1,   Marco%Manzoni%NULL%1,   Gesualdo%Muscarella%NULL%1,   Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+id="Par2"&gt;From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+id="Par3"&gt;APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+id="Par5"&gt;
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,    Caroline%Bouzad%NULL%2,    Caroline%Bouzad%NULL%0,    Evelyne%Peroux%NULL%1,    Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Little evidence of increased thrombotic risk is available in COVID-19 patients.
+ Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
+Methods
+id="Par2"&gt;All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
+ Medical history, symptoms, biological data and imaging were prospectively collected.
+ Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
+Results
+id="Par3"&gt;150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
+ Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
+ 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
+ Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
+ Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
+ No patient developed disseminated intravascular coagulation.
+ Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
+ Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
+ 2.1%, p &amp;lt; 0.008).
+ Coagulation parameters significantly differed between the two groups.
+Conclusion
+id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
+ Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,    Charles%Tacquard%NULL%1,    François%Severac%NULL%0,    Ian%Leonard-Lorant%NULL%1,    Mickaël%Ohana%NULL%0,    Xavier%Delabranche%NULL%0,    Hamid%Merdji%NULL%1,    Raphaël%Clere-Jehl%NULL%1,    Malika%Schenck%NULL%1,    Florence%Fagot Gandet%NULL%1,    Samira%Fafi-Kremer%NULL%1,    Vincent%Castelain%NULL%1,    Francis%Schneider%NULL%0,    Lélia%Grunebaum%NULL%1,    Eduardo%Anglés-Cano%NULL%1,    Laurent%Sattler%NULL%1,    Paul-Michel%Mertes%NULL%0,    Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+id="Par3"&gt;APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+id="Par5"&gt;
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,     Caroline%Bouzad%NULL%2,     Caroline%Bouzad%NULL%0,     Evelyne%Peroux%NULL%1,     Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Little evidence of increased thrombotic risk is available in COVID-19 patients.
+ Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
+Methods
+All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
+ Medical history, symptoms, biological data and imaging were prospectively collected.
+ Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
+Results
+id="Par3"&gt;150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
+ Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
+ 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
+ Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
+ Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
+ No patient developed disseminated intravascular coagulation.
+ Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
+ Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
+ 2.1%, p &amp;lt; 0.008).
+ Coagulation parameters significantly differed between the two groups.
+Conclusion
+id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
+ Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,     Charles%Tacquard%NULL%1,     François%Severac%NULL%1,     Ian%Leonard-Lorant%NULL%1,     Mickaël%Ohana%NULL%1,     Xavier%Delabranche%NULL%1,     Hamid%Merdji%NULL%1,     Raphaël%Clere-Jehl%NULL%1,     Malika%Schenck%NULL%1,     Florence%Fagot Gandet%NULL%1,     Samira%Fafi-Kremer%NULL%1,     Vincent%Castelain%NULL%1,     Francis%Schneider%NULL%1,     Lélia%Grunebaum%NULL%1,     Eduardo%Anglés-Cano%NULL%1,     Laurent%Sattler%NULL%1,     Paul-Michel%Mertes%NULL%1,     Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+id="Par5"&gt;
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,      Caroline%Bouzad%NULL%2,      Caroline%Bouzad%NULL%0,      Evelyne%Peroux%NULL%1,      Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Little evidence of increased thrombotic risk is available in COVID-19 patients.
+ Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
+Methods
+All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
+ Medical history, symptoms, biological data and imaging were prospectively collected.
+ Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
+Results
+150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
+ Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
+ 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
+ Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
+ Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
+ No patient developed disseminated intravascular coagulation.
+ Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
+ Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
+ 2.1%, p &amp;lt; 0.008).
+ Coagulation parameters significantly differed between the two groups.
+Conclusion
+id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
+ Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,      Charles%Tacquard%NULL%1,      François%Severac%NULL%1,      Ian%Leonard-Lorant%NULL%1,      Mickaël%Ohana%NULL%1,      Xavier%Delabranche%NULL%1,      Hamid%Merdji%NULL%1,      Raphaël%Clere-Jehl%NULL%1,      Malika%Schenck%NULL%1,      Florence%Fagot Gandet%NULL%1,      Samira%Fafi-Kremer%NULL%1,      Vincent%Castelain%NULL%1,      Francis%Schneider%NULL%1,      Lélia%Grunebaum%NULL%1,      Eduardo%Anglés-Cano%NULL%1,      Laurent%Sattler%NULL%1,      Paul-Michel%Mertes%NULL%1,      Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+id="Par5"&gt;
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,       Caroline%Bouzad%NULL%2,       Caroline%Bouzad%NULL%0,       Evelyne%Peroux%NULL%1,       Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Little evidence of increased thrombotic risk is available in COVID-19 patients.
+ Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
+Methods
+All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
+ Medical history, symptoms, biological data and imaging were prospectively collected.
+ Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
+Results
+150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
+ Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
+ 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
+ Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
+ Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
+ No patient developed disseminated intravascular coagulation.
+ Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
+ Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
+ 2.1%, p &amp;lt; 0.008).
+ Coagulation parameters significantly differed between the two groups.
+Conclusion
+Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
+ Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,       Charles%Tacquard%NULL%1,       François%Severac%NULL%1,       Ian%Leonard-Lorant%NULL%1,       Mickaël%Ohana%NULL%1,       Xavier%Delabranche%NULL%1,       Hamid%Merdji%NULL%1,       Raphaël%Clere-Jehl%NULL%1,       Malika%Schenck%NULL%1,       Florence%Fagot Gandet%NULL%1,       Samira%Fafi-Kremer%NULL%1,       Vincent%Castelain%NULL%1,       Francis%Schneider%NULL%1,       Lélia%Grunebaum%NULL%1,       Eduardo%Anglés-Cano%NULL%1,       Laurent%Sattler%NULL%1,       Paul-Michel%Mertes%NULL%1,       Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,        Caroline%Bouzad%NULL%2,        Caroline%Bouzad%NULL%0,        Evelyne%Peroux%NULL%1,        Carole%Helissey%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -844,10 +1124,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -974,10 +1254,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
   <si>
     <t>Doi</t>
   </si>
@@ -460,286 +460,6 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,   Elena M.%Bertinato%NULL%1,   Simone%Birocchi%NULL%1,   Carolina%Brizio%NULL%1,   Daniele%Malavolta%NULL%1,   Marco%Manzoni%NULL%1,   Gesualdo%Muscarella%NULL%1,   Michela%Orlandi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
-Methods
-id="Par2"&gt;From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
- Relevant clinical and laboratory data and CT scan findings were collected for each patient.
- CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
- Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
-Results
-id="Par3"&gt;APE was identified in 13 (18%) CTPA scans.
- The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
- 59.6 years, p = 0.008, and 7.29 vs.
- 3.29 μg/ml, p = 0.011).
- There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
- 97%; consolidation: 69% vs.
- 68%; crazy paving: 38% vs.
- 37%; linear reticulation: 69% vs.
- 78%), CT severity score (6.3 vs.
- 7.1, p = 0.365), quality of CTPA (1.8 vs.
- 2.0, p = 0.518), and pleural effusion (38% vs.
- 19%, p = 0.146).
-Conclusions
-id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
- The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
-Key Points
-id="Par5"&gt;
-• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
- Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
-</t>
-  </si>
-  <si>
-    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,    Caroline%Bouzad%NULL%2,    Caroline%Bouzad%NULL%0,    Evelyne%Peroux%NULL%1,    Carole%Helissey%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-Little evidence of increased thrombotic risk is available in COVID-19 patients.
- Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
-Methods
-id="Par2"&gt;All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
- Medical history, symptoms, biological data and imaging were prospectively collected.
- Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
-Results
-id="Par3"&gt;150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
- Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
- 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
- Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
- Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
- No patient developed disseminated intravascular coagulation.
- Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
- Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
- 2.1%, p &amp;lt; 0.008).
- Coagulation parameters significantly differed between the two groups.
-Conclusion
-id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
- Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
-Electronic supplementary material
-The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Julie%Helms%NULL%1,    Charles%Tacquard%NULL%1,    François%Severac%NULL%0,    Ian%Leonard-Lorant%NULL%1,    Mickaël%Ohana%NULL%0,    Xavier%Delabranche%NULL%0,    Hamid%Merdji%NULL%1,    Raphaël%Clere-Jehl%NULL%1,    Malika%Schenck%NULL%1,    Florence%Fagot Gandet%NULL%1,    Samira%Fafi-Kremer%NULL%1,    Vincent%Castelain%NULL%1,    Francis%Schneider%NULL%0,    Lélia%Grunebaum%NULL%1,    Eduardo%Anglés-Cano%NULL%1,    Laurent%Sattler%NULL%1,    Paul-Michel%Mertes%NULL%0,    Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
-Methods
-From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
- Relevant clinical and laboratory data and CT scan findings were collected for each patient.
- CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
- Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
-Results
-id="Par3"&gt;APE was identified in 13 (18%) CTPA scans.
- The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
- 59.6 years, p = 0.008, and 7.29 vs.
- 3.29 μg/ml, p = 0.011).
- There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
- 97%; consolidation: 69% vs.
- 68%; crazy paving: 38% vs.
- 37%; linear reticulation: 69% vs.
- 78%), CT severity score (6.3 vs.
- 7.1, p = 0.365), quality of CTPA (1.8 vs.
- 2.0, p = 0.518), and pleural effusion (38% vs.
- 19%, p = 0.146).
-Conclusions
-id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
- The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
-Key Points
-id="Par5"&gt;
-• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
- Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
-</t>
-  </si>
-  <si>
-    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,     Caroline%Bouzad%NULL%2,     Caroline%Bouzad%NULL%0,     Evelyne%Peroux%NULL%1,     Carole%Helissey%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-Little evidence of increased thrombotic risk is available in COVID-19 patients.
- Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
-Methods
-All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
- Medical history, symptoms, biological data and imaging were prospectively collected.
- Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
-Results
-id="Par3"&gt;150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
- Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
- 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
- Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
- Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
- No patient developed disseminated intravascular coagulation.
- Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
- Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
- 2.1%, p &amp;lt; 0.008).
- Coagulation parameters significantly differed between the two groups.
-Conclusion
-id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
- Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
-Electronic supplementary material
-The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Julie%Helms%NULL%1,     Charles%Tacquard%NULL%1,     François%Severac%NULL%1,     Ian%Leonard-Lorant%NULL%1,     Mickaël%Ohana%NULL%1,     Xavier%Delabranche%NULL%1,     Hamid%Merdji%NULL%1,     Raphaël%Clere-Jehl%NULL%1,     Malika%Schenck%NULL%1,     Florence%Fagot Gandet%NULL%1,     Samira%Fafi-Kremer%NULL%1,     Vincent%Castelain%NULL%1,     Francis%Schneider%NULL%1,     Lélia%Grunebaum%NULL%1,     Eduardo%Anglés-Cano%NULL%1,     Laurent%Sattler%NULL%1,     Paul-Michel%Mertes%NULL%1,     Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
-Methods
-From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
- Relevant clinical and laboratory data and CT scan findings were collected for each patient.
- CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
- Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
-Results
-APE was identified in 13 (18%) CTPA scans.
- The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
- 59.6 years, p = 0.008, and 7.29 vs.
- 3.29 μg/ml, p = 0.011).
- There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
- 97%; consolidation: 69% vs.
- 68%; crazy paving: 38% vs.
- 37%; linear reticulation: 69% vs.
- 78%), CT severity score (6.3 vs.
- 7.1, p = 0.365), quality of CTPA (1.8 vs.
- 2.0, p = 0.518), and pleural effusion (38% vs.
- 19%, p = 0.146).
-Conclusions
-id="Par4"&gt;Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
- The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
-Key Points
-id="Par5"&gt;
-• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
- Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
-</t>
-  </si>
-  <si>
-    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,      Caroline%Bouzad%NULL%2,      Caroline%Bouzad%NULL%0,      Evelyne%Peroux%NULL%1,      Carole%Helissey%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-Little evidence of increased thrombotic risk is available in COVID-19 patients.
- Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
-Methods
-All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
- Medical history, symptoms, biological data and imaging were prospectively collected.
- Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
-Results
-150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
- Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
- 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
- Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
- Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
- No patient developed disseminated intravascular coagulation.
- Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
- Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
- 2.1%, p &amp;lt; 0.008).
- Coagulation parameters significantly differed between the two groups.
-Conclusion
-id="Par4"&gt;Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
- Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
-Electronic supplementary material
-The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Julie%Helms%NULL%1,      Charles%Tacquard%NULL%1,      François%Severac%NULL%1,      Ian%Leonard-Lorant%NULL%1,      Mickaël%Ohana%NULL%1,      Xavier%Delabranche%NULL%1,      Hamid%Merdji%NULL%1,      Raphaël%Clere-Jehl%NULL%1,      Malika%Schenck%NULL%1,      Florence%Fagot Gandet%NULL%1,      Samira%Fafi-Kremer%NULL%1,      Vincent%Castelain%NULL%1,      Francis%Schneider%NULL%1,      Lélia%Grunebaum%NULL%1,      Eduardo%Anglés-Cano%NULL%1,      Laurent%Sattler%NULL%1,      Paul-Michel%Mertes%NULL%1,      Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
-Methods
-From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
- Relevant clinical and laboratory data and CT scan findings were collected for each patient.
- CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
- Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
-Results
-APE was identified in 13 (18%) CTPA scans.
- The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
- 59.6 years, p = 0.008, and 7.29 vs.
- 3.29 μg/ml, p = 0.011).
- There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
- 97%; consolidation: 69% vs.
- 68%; crazy paving: 38% vs.
- 37%; linear reticulation: 69% vs.
- 78%), CT severity score (6.3 vs.
- 7.1, p = 0.365), quality of CTPA (1.8 vs.
- 2.0, p = 0.518), and pleural effusion (38% vs.
- 19%, p = 0.146).
-Conclusions
-Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
- The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
-Key Points
-id="Par5"&gt;
-• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
- Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
-</t>
-  </si>
-  <si>
-    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,       Caroline%Bouzad%NULL%2,       Caroline%Bouzad%NULL%0,       Evelyne%Peroux%NULL%1,       Carole%Helissey%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-Little evidence of increased thrombotic risk is available in COVID-19 patients.
- Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
-Methods
-All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
- Medical history, symptoms, biological data and imaging were prospectively collected.
- Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
-Results
-150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
- Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
- 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
- Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
- Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
- No patient developed disseminated intravascular coagulation.
- Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
- Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
- 2.1%, p &amp;lt; 0.008).
- Coagulation parameters significantly differed between the two groups.
-Conclusion
-Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
- Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
-Electronic supplementary material
-The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Julie%Helms%NULL%1,       Charles%Tacquard%NULL%1,       François%Severac%NULL%1,       Ian%Leonard-Lorant%NULL%1,       Mickaël%Ohana%NULL%1,       Xavier%Delabranche%NULL%1,       Hamid%Merdji%NULL%1,       Raphaël%Clere-Jehl%NULL%1,       Malika%Schenck%NULL%1,       Florence%Fagot Gandet%NULL%1,       Samira%Fafi-Kremer%NULL%1,       Vincent%Castelain%NULL%1,       Francis%Schneider%NULL%1,       Lélia%Grunebaum%NULL%1,       Eduardo%Anglés-Cano%NULL%1,       Laurent%Sattler%NULL%1,       Paul-Michel%Mertes%NULL%1,       Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
-Methods
-From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
- Relevant clinical and laboratory data and CT scan findings were collected for each patient.
- CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
- Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
-Results
-APE was identified in 13 (18%) CTPA scans.
- The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
- 59.6 years, p = 0.008, and 7.29 vs.
- 3.29 μg/ml, p = 0.011).
- There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
- 97%; consolidation: 69% vs.
- 68%; crazy paving: 38% vs.
- 37%; linear reticulation: 69% vs.
- 78%), CT severity score (6.3 vs.
- 7.1, p = 0.365), quality of CTPA (1.8 vs.
- 2.0, p = 0.518), and pleural effusion (38% vs.
- 19%, p = 0.146).
-Conclusions
-Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
- The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
-Key Points
-• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
- Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
-</t>
-  </si>
-  <si>
-    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,        Caroline%Bouzad%NULL%2,        Caroline%Bouzad%NULL%0,        Evelyne%Peroux%NULL%1,        Carole%Helissey%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +844,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1254,10 +974,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -460,6 +460,51 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,   Elena M.%Bertinato%NULL%1,   Simone%Birocchi%NULL%1,   Carolina%Brizio%NULL%1,   Daniele%Malavolta%NULL%1,   Marco%Manzoni%NULL%1,   Gesualdo%Muscarella%NULL%1,   Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,    Xavier%Delabranche%NULL%3,    Xavier%Delabranche%NULL%0,    François%Severac%NULL%3,    François%Severac%NULL%0,    Julie%Helms%NULL%2,    Julie%Helms%NULL%0,    Coralie%Pauzet%NULL%1,    Olivier%Collange%NULL%1,    Françis%Schneider%NULL%1,    Aissam%Labani%NULL%2,    Aissam%Labani%NULL%0,    Pascal%Bilbault%NULL%1,    Sébastien%Moliere%NULL%2,    Sébastien%Moliere%NULL%0,    Pierre%Leyendecker%NULL%1,    Catherine%Roy%NULL%2,    Catherine%Roy%NULL%0,    Mickaël%Ohana%mickael.ohana@gmail.com%3,    Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,    Julien%Behr%NULL%2,    Julien%Behr%NULL%0,    Paul%Calame%NULL%1,    Sébastien%Aubry%NULL%1,    Eric%Delabrousse%NULL%2,    Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,    Caroline%Bouzad%NULL%2,    Caroline%Bouzad%NULL%0,    Evelyne%Peroux%NULL%1,    Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,    Rebecca S.%Karp Leaf%NULL%1,    Walter H.%Dzik%NULL%1,    Jonathan C.T.%Carlson%NULL%1,    Annemarie E.%Fogerty%NULL%1,    Anem%Waheed%NULL%1,    Katayoon%Goodarzi%NULL%1,    Pavan K.%Bendapudi%NULL%1,    Larissa%Bornikova%NULL%1,    Shruti%Gupta%NULL%1,    David E.%Leaf%NULL%1,    David J.%Kuter%NULL%1,    Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,    Maxime%Leclerc%NULL%1,    Camille%Chochois%NULL%1,    Jean‐Michel%Monsallier%NULL%1,    Michel%Ramakers%NULL%1,    Malika%Auvray%NULL%1,    Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,    Charles%Tacquard%NULL%1,    François%Severac%NULL%0,    Ian%Leonard-Lorant%NULL%1,    Mickaël%Ohana%NULL%0,    Xavier%Delabranche%NULL%0,    Hamid%Merdji%NULL%1,    Raphaël%Clere-Jehl%NULL%1,    Malika%Schenck%NULL%1,    Florence%Fagot Gandet%NULL%1,    Samira%Fafi-Kremer%NULL%0,    Vincent%Castelain%NULL%1,    Francis%Schneider%NULL%1,    Lélia%Grunebaum%NULL%1,    Eduardo%Anglés-Cano%NULL%1,    Laurent%Sattler%NULL%1,    Paul-Michel%Mertes%NULL%1,    Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,    E.%Cervilla-Muñoz%NULL%1,    L.%Ordieres-Ortega%NULL%1,    A.%Parra-Virto%NULL%1,    M.%Toledano-Macías%NULL%1,    N.%Toledo-Samaniego%NULL%1,    A.%García-García%NULL%1,    I.%García-Fernández-Bravo%NULL%1,    Z.%Ji%NULL%1,    J.%de-Miguel-Diez%NULL%1,    L.A.%Álvarez-Sala-Walther%NULL%1,    J.%del-Toro-Cervera%NULL%1,    F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,    Shuo%Chen%NULL%1,    Xiunan%Li%NULL%1,    Shi%Liu%NULL%1,    Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,    Michiel%Coppens%NULL%1,    Thijs F.%van Haaps%NULL%1,    Merijn%Foppen%NULL%1,    Alexander P.%Vlaar%NULL%1,    Marcella C.A.%Müller%NULL%1,    Catherine C.S.%Bouman%NULL%1,    Ludo F.M.%Beenen%NULL%1,    Ruud S.%Kootte%NULL%1,    Jarom%Heijmans%NULL%1,    Loek P.%Smits%NULL%1,    Peter I.%Bonta%NULL%1,    Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,    Hippolyte%Monnier%NULL%1,    Ines%Saab%NULL%1,    Mickael%Tordjman%NULL%1,    Hendy%Abdoul%NULL%1,    Laure%Fournier%NULL%1,    Olivier%Sanchez%NULL%1,    Christine%Lorut%NULL%1,    Guillaume%Chassagnon%NULL%1,    Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,    Elena M.%Bertinato%NULL%1,    Simone%Birocchi%NULL%1,    Carolina%Brizio%NULL%1,    Daniele%Malavolta%NULL%1,    Marco%Manzoni%NULL%1,    Gesualdo%Muscarella%NULL%1,    Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -780,6 +825,9 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -795,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -805,6 +853,9 @@
       </c>
       <c r="H2" t="s">
         <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +872,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -831,6 +882,9 @@
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +901,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -857,6 +911,9 @@
       </c>
       <c r="H4" t="s">
         <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -873,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -883,6 +940,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -910,6 +970,9 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -936,6 +999,9 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -951,7 +1017,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -961,6 +1027,9 @@
       </c>
       <c r="H8" t="s">
         <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -987,6 +1056,9 @@
       </c>
       <c r="H9" t="s">
         <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1003,7 +1075,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1013,6 +1085,9 @@
       </c>
       <c r="H10" t="s">
         <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1029,7 +1104,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1039,6 +1114,9 @@
       </c>
       <c r="H11" t="s">
         <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1055,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1065,6 +1143,9 @@
       </c>
       <c r="H12" t="s">
         <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1092,6 +1173,9 @@
       <c r="H13" t="s">
         <v>34</v>
       </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -1107,7 +1191,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1117,6 +1201,9 @@
       </c>
       <c r="H14" t="s">
         <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1133,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -1143,6 +1230,9 @@
       </c>
       <c r="H15" t="s">
         <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="152">
   <si>
     <t>Doi</t>
   </si>
@@ -505,6 +505,105 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,    Elena M.%Bertinato%NULL%1,    Simone%Birocchi%NULL%1,    Carolina%Brizio%NULL%1,    Daniele%Malavolta%NULL%1,    Marco%Manzoni%NULL%1,    Gesualdo%Muscarella%NULL%1,    Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,     Xavier%Delabranche%NULL%3,     Xavier%Delabranche%NULL%0,     François%Severac%NULL%3,     François%Severac%NULL%0,     Julie%Helms%NULL%0,     Julie%Helms%NULL%0,     Coralie%Pauzet%NULL%1,     Olivier%Collange%NULL%1,     Françis%Schneider%NULL%1,     Aissam%Labani%NULL%2,     Aissam%Labani%NULL%0,     Pascal%Bilbault%NULL%1,     Sébastien%Moliere%NULL%2,     Sébastien%Moliere%NULL%0,     Pierre%Leyendecker%NULL%1,     Catherine%Roy%NULL%2,     Catherine%Roy%NULL%0,     Mickaël%Ohana%mickael.ohana@gmail.com%3,     Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,     Julien%Behr%NULL%2,     Julien%Behr%NULL%0,     Paul%Calame%NULL%1,     Sébastien%Aubry%NULL%1,     Eric%Delabrousse%NULL%2,     Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,     Caroline%Bouzad%NULL%2,     Caroline%Bouzad%NULL%0,     Evelyne%Peroux%NULL%1,     Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,     Rebecca S.%Karp Leaf%NULL%1,     Walter H.%Dzik%NULL%1,     Jonathan C.T.%Carlson%NULL%1,     Annemarie E.%Fogerty%NULL%1,     Anem%Waheed%NULL%1,     Katayoon%Goodarzi%NULL%1,     Pavan K.%Bendapudi%NULL%1,     Larissa%Bornikova%NULL%1,     Shruti%Gupta%NULL%1,     David E.%Leaf%NULL%1,     David J.%Kuter%NULL%1,     Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,     Maxime%Leclerc%NULL%1,     Camille%Chochois%NULL%1,     Jean‐Michel%Monsallier%NULL%1,     Michel%Ramakers%NULL%1,     Malika%Auvray%NULL%1,     Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,     Charles%Tacquard%NULL%1,     François%Severac%NULL%0,     Ian%Leonard-Lorant%NULL%1,     Mickaël%Ohana%NULL%0,     Xavier%Delabranche%NULL%0,     Hamid%Merdji%NULL%1,     Raphaël%Clere-Jehl%NULL%1,     Malika%Schenck%NULL%1,     Florence%Fagot Gandet%NULL%1,     Samira%Fafi-Kremer%NULL%1,     Vincent%Castelain%NULL%1,     Francis%Schneider%NULL%0,     Lélia%Grunebaum%NULL%1,     Eduardo%Anglés-Cano%NULL%1,     Laurent%Sattler%NULL%1,     Paul-Michel%Mertes%NULL%0,     Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,     E.%Cervilla-Muñoz%NULL%1,     L.%Ordieres-Ortega%NULL%1,     A.%Parra-Virto%NULL%1,     M.%Toledano-Macías%NULL%1,     N.%Toledo-Samaniego%NULL%1,     A.%García-García%NULL%1,     I.%García-Fernández-Bravo%NULL%1,     Z.%Ji%NULL%1,     J.%de-Miguel-Diez%NULL%1,     L.A.%Álvarez-Sala-Walther%NULL%1,     J.%del-Toro-Cervera%NULL%1,     F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,     Shuo%Chen%NULL%1,     Xiunan%Li%NULL%1,     Shi%Liu%NULL%1,     Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,     Michiel%Coppens%NULL%1,     Thijs F.%van Haaps%NULL%1,     Merijn%Foppen%NULL%1,     Alexander P.%Vlaar%NULL%1,     Marcella C.A.%Müller%NULL%1,     Catherine C.S.%Bouman%NULL%1,     Ludo F.M.%Beenen%NULL%1,     Ruud S.%Kootte%NULL%1,     Jarom%Heijmans%NULL%1,     Loek P.%Smits%NULL%1,     Peter I.%Bonta%NULL%1,     Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,     Hippolyte%Monnier%NULL%1,     Ines%Saab%NULL%1,     Mickael%Tordjman%NULL%1,     Hendy%Abdoul%NULL%1,     Laure%Fournier%NULL%1,     Olivier%Sanchez%NULL%1,     Christine%Lorut%NULL%1,     Guillaume%Chassagnon%NULL%1,     Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,     Elena M.%Bertinato%NULL%1,     Simone%Birocchi%NULL%1,     Carolina%Brizio%NULL%1,     Daniele%Malavolta%NULL%1,     Marco%Manzoni%NULL%1,     Gesualdo%Muscarella%NULL%1,     Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,      Xavier%Delabranche%NULL%3,      Xavier%Delabranche%NULL%0,      François%Severac%NULL%3,      François%Severac%NULL%0,      Julie%Helms%NULL%0,      Julie%Helms%NULL%0,      Coralie%Pauzet%NULL%1,      Olivier%Collange%NULL%1,      Françis%Schneider%NULL%1,      Aissam%Labani%NULL%2,      Aissam%Labani%NULL%0,      Pascal%Bilbault%NULL%1,      Sébastien%Moliere%NULL%2,      Sébastien%Moliere%NULL%0,      Pierre%Leyendecker%NULL%1,      Catherine%Roy%NULL%2,      Catherine%Roy%NULL%0,      Mickaël%Ohana%mickael.ohana@gmail.com%3,      Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,      Julien%Behr%NULL%2,      Julien%Behr%NULL%0,      Paul%Calame%NULL%1,      Sébastien%Aubry%NULL%1,      Eric%Delabrousse%NULL%2,      Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,      Caroline%Bouzad%NULL%2,      Caroline%Bouzad%NULL%0,      Evelyne%Peroux%NULL%1,      Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,      Rebecca S.%Karp Leaf%NULL%1,      Walter H.%Dzik%NULL%1,      Jonathan C.T.%Carlson%NULL%1,      Annemarie E.%Fogerty%NULL%1,      Anem%Waheed%NULL%1,      Katayoon%Goodarzi%NULL%1,      Pavan K.%Bendapudi%NULL%1,      Larissa%Bornikova%NULL%1,      Shruti%Gupta%NULL%1,      David E.%Leaf%NULL%1,      David J.%Kuter%NULL%1,      Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,      Maxime%Leclerc%NULL%1,      Camille%Chochois%NULL%1,      Jean‐Michel%Monsallier%NULL%1,      Michel%Ramakers%NULL%1,      Malika%Auvray%NULL%1,      Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,      Charles%Tacquard%NULL%1,      François%Severac%NULL%0,      Ian%Leonard-Lorant%NULL%1,      Mickaël%Ohana%NULL%0,      Xavier%Delabranche%NULL%0,      Hamid%Merdji%NULL%1,      Raphaël%Clere-Jehl%NULL%1,      Malika%Schenck%NULL%1,      Florence%Fagot Gandet%NULL%1,      Samira%Fafi-Kremer%NULL%1,      Vincent%Castelain%NULL%1,      Francis%Schneider%NULL%0,      Lélia%Grunebaum%NULL%1,      Eduardo%Anglés-Cano%NULL%1,      Laurent%Sattler%NULL%1,      Paul-Michel%Mertes%NULL%0,      Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,      E.%Cervilla-Muñoz%NULL%1,      L.%Ordieres-Ortega%NULL%1,      A.%Parra-Virto%NULL%1,      M.%Toledano-Macías%NULL%1,      N.%Toledo-Samaniego%NULL%1,      A.%García-García%NULL%1,      I.%García-Fernández-Bravo%NULL%1,      Z.%Ji%NULL%1,      J.%de-Miguel-Diez%NULL%1,      L.A.%Álvarez-Sala-Walther%NULL%1,      J.%del-Toro-Cervera%NULL%1,      F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,      Shuo%Chen%NULL%1,      Xiunan%Li%NULL%1,      Shi%Liu%NULL%1,      Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,      Michiel%Coppens%NULL%1,      Thijs F.%van Haaps%NULL%1,      Merijn%Foppen%NULL%1,      Alexander P.%Vlaar%NULL%1,      Marcella C.A.%Müller%NULL%1,      Catherine C.S.%Bouman%NULL%1,      Ludo F.M.%Beenen%NULL%1,      Ruud S.%Kootte%NULL%1,      Jarom%Heijmans%NULL%1,      Loek P.%Smits%NULL%1,      Peter I.%Bonta%NULL%1,      Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,      Hippolyte%Monnier%NULL%1,      Ines%Saab%NULL%1,      Mickael%Tordjman%NULL%1,      Hendy%Abdoul%NULL%1,      Laure%Fournier%NULL%1,      Olivier%Sanchez%NULL%1,      Christine%Lorut%NULL%1,      Guillaume%Chassagnon%NULL%1,      Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,      Elena M.%Bertinato%NULL%1,      Simone%Birocchi%NULL%1,      Carolina%Brizio%NULL%1,      Daniele%Malavolta%NULL%1,      Marco%Manzoni%NULL%1,      Gesualdo%Muscarella%NULL%1,      Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,       Xavier%Delabranche%NULL%3,       Xavier%Delabranche%NULL%0,       François%Severac%NULL%3,       François%Severac%NULL%0,       Julie%Helms%NULL%0,       Julie%Helms%NULL%0,       Coralie%Pauzet%NULL%1,       Olivier%Collange%NULL%1,       Françis%Schneider%NULL%1,       Aissam%Labani%NULL%2,       Aissam%Labani%NULL%0,       Pascal%Bilbault%NULL%1,       Sébastien%Moliere%NULL%2,       Sébastien%Moliere%NULL%0,       Pierre%Leyendecker%NULL%1,       Catherine%Roy%NULL%2,       Catherine%Roy%NULL%0,       Mickaël%Ohana%mickael.ohana@gmail.com%3,       Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,       Julien%Behr%NULL%2,       Julien%Behr%NULL%0,       Paul%Calame%NULL%1,       Sébastien%Aubry%NULL%1,       Eric%Delabrousse%NULL%2,       Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,       Caroline%Bouzad%NULL%2,       Caroline%Bouzad%NULL%0,       Evelyne%Peroux%NULL%1,       Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,       Rebecca S.%Karp Leaf%NULL%1,       Walter H.%Dzik%NULL%1,       Jonathan C.T.%Carlson%NULL%1,       Annemarie E.%Fogerty%NULL%1,       Anem%Waheed%NULL%1,       Katayoon%Goodarzi%NULL%1,       Pavan K.%Bendapudi%NULL%1,       Larissa%Bornikova%NULL%1,       Shruti%Gupta%NULL%1,       David E.%Leaf%NULL%1,       David J.%Kuter%NULL%1,       Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,       Maxime%Leclerc%NULL%1,       Camille%Chochois%NULL%1,       Jean‐Michel%Monsallier%NULL%1,       Michel%Ramakers%NULL%1,       Malika%Auvray%NULL%1,       Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,       Charles%Tacquard%NULL%1,       François%Severac%NULL%0,       Ian%Leonard-Lorant%NULL%1,       Mickaël%Ohana%NULL%0,       Xavier%Delabranche%NULL%0,       Hamid%Merdji%NULL%1,       Raphaël%Clere-Jehl%NULL%1,       Malika%Schenck%NULL%1,       Florence%Fagot Gandet%NULL%1,       Samira%Fafi-Kremer%NULL%1,       Vincent%Castelain%NULL%1,       Francis%Schneider%NULL%0,       Lélia%Grunebaum%NULL%1,       Eduardo%Anglés-Cano%NULL%1,       Laurent%Sattler%NULL%1,       Paul-Michel%Mertes%NULL%0,       Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,       E.%Cervilla-Muñoz%NULL%1,       L.%Ordieres-Ortega%NULL%1,       A.%Parra-Virto%NULL%1,       M.%Toledano-Macías%NULL%1,       N.%Toledo-Samaniego%NULL%1,       A.%García-García%NULL%1,       I.%García-Fernández-Bravo%NULL%1,       Z.%Ji%NULL%1,       J.%de-Miguel-Diez%NULL%1,       L.A.%Álvarez-Sala-Walther%NULL%1,       J.%del-Toro-Cervera%NULL%1,       F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,       Shuo%Chen%NULL%1,       Xiunan%Li%NULL%1,       Shi%Liu%NULL%1,       Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,       Michiel%Coppens%NULL%1,       Thijs F.%van Haaps%NULL%1,       Merijn%Foppen%NULL%1,       Alexander P.%Vlaar%NULL%1,       Marcella C.A.%Müller%NULL%1,       Catherine C.S.%Bouman%NULL%1,       Ludo F.M.%Beenen%NULL%1,       Ruud S.%Kootte%NULL%1,       Jarom%Heijmans%NULL%1,       Loek P.%Smits%NULL%1,       Peter I.%Bonta%NULL%1,       Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,       Hippolyte%Monnier%NULL%1,       Ines%Saab%NULL%1,       Mickael%Tordjman%NULL%1,       Hendy%Abdoul%NULL%1,       Laure%Fournier%NULL%1,       Olivier%Sanchez%NULL%1,       Christine%Lorut%NULL%1,       Guillaume%Chassagnon%NULL%1,       Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,       Elena M.%Bertinato%NULL%1,       Simone%Birocchi%NULL%1,       Carolina%Brizio%NULL%1,       Daniele%Malavolta%NULL%1,       Marco%Manzoni%NULL%1,       Gesualdo%Muscarella%NULL%1,       Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -872,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -901,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -930,7 +1029,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1017,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1046,7 +1145,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1075,7 +1174,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1104,7 +1203,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1133,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1191,7 +1290,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1220,7 +1319,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="187">
   <si>
     <t>Doi</t>
   </si>
@@ -604,6 +604,120 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,       Elena M.%Bertinato%NULL%1,       Simone%Birocchi%NULL%1,       Carolina%Brizio%NULL%1,       Daniele%Malavolta%NULL%1,       Marco%Manzoni%NULL%1,       Gesualdo%Muscarella%NULL%1,       Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,        Xavier%Delabranche%NULL%3,        Xavier%Delabranche%NULL%0,        François%Severac%NULL%3,        François%Severac%NULL%0,        Julie%Helms%NULL%0,        Julie%Helms%NULL%0,        Coralie%Pauzet%NULL%1,        Olivier%Collange%NULL%1,        Françis%Schneider%NULL%1,        Aissam%Labani%NULL%2,        Aissam%Labani%NULL%0,        Pascal%Bilbault%NULL%1,        Sébastien%Moliere%NULL%2,        Sébastien%Moliere%NULL%0,        Pierre%Leyendecker%NULL%1,        Catherine%Roy%NULL%2,        Catherine%Roy%NULL%0,        Mickaël%Ohana%mickael.ohana@gmail.com%3,        Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,        Julien%Behr%NULL%2,        Julien%Behr%NULL%0,        Paul%Calame%NULL%1,        Sébastien%Aubry%NULL%1,        Eric%Delabrousse%NULL%2,        Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,        Caroline%Bouzad%NULL%2,        Caroline%Bouzad%NULL%0,        Evelyne%Peroux%NULL%1,        Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,        Rebecca S.%Karp Leaf%NULL%1,        Walter H.%Dzik%NULL%1,        Jonathan C.T.%Carlson%NULL%1,        Annemarie E.%Fogerty%NULL%1,        Anem%Waheed%NULL%1,        Katayoon%Goodarzi%NULL%1,        Pavan K.%Bendapudi%NULL%1,        Larissa%Bornikova%NULL%1,        Shruti%Gupta%NULL%1,        David E.%Leaf%NULL%1,        David J.%Kuter%NULL%1,        Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Extremely High Incidence of Lower Extremity Deep Venous Thrombosis in 48 Patients With Severe COVID-19 in Wuhan"</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1, Feifei%Yan%xref no email%1, Zhouming%Deng%xref no email%1, Sheng%Zhang%xref no email%0, Lingfei%Xiao%xref no email%1, Meng%Wu%xref no email%1, Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>"Deep Vein Thrombosis in Hospitalized Patients With COVID-19 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            Background:\n            To investigate deep vein thrombosis (DVT) in hospitalized patients with coronavirus disease 2019 (COVID-19), we performed a single institutional study to evaluate its prevalence, risk factors, prognosis, and potential thromboprophylaxis strategies in a large referral and treatment center.
+\n          \n          \n            Methods:\n            We studied a total of 143 patients with COVID-19 from January 29, 2020 to February 29, 2020. Demographic and clinical data, laboratory data, including ultrasound scans of the lower extremities, and outcome variables were obtained, and comparisons were made between groups with and without DVT.
+\n          \n          \n            Results:\n            \n              Of the 143 patients hospitalized with COVID-19 (age 63\u00b114 years, 74 [51.7%] men), 66 patients developed lower extremity DVT (46.1%: 23 [34.8%] with proximal DVT and 43 [65.2%] with distal DVT).
+ Compared with patients who did not have DVT, patients with DVT were older and had a lower oxygenation index, a higher rate of cardiac injury, and worse prognosis, including an increased proportion of deaths (23 [34.8%] versus 9 [11.7%];\n              P\n              =0.001) and a decreased proportion of patients discharged (32 [48.5%] versus 60 [77.9%];\n              P\n              &amp;lt;0.001).
+ Multivariant analysis showed an association only between CURB-65 (confusion status, urea, respiratory rate, and blood pressure) score 3 to 5 (odds ratio, 6.122;\n              P\n              =0.031), Padua prediction score \u22654 (odds ratio, 4.016;\n              P\n              =0.04), D-dimer &amp;gt;1.0 \u03bcg\/mL (odds ratio, 5.818;\n              P\n              &amp;lt;0.014), and DVT in this cohort, respectively.
+ The combination of a CURB-65 score 3 to 5, a Padua prediction score \u22654, and D-dimer &amp;gt;1.0 \u03bcg\/mL has a sensitivity of 88.52% and a specificity of 61.43% for screening for DVT.
+ In the subgroup of patients with a Padua prediction score \u22654 and whose ultrasound scans were performed &amp;gt;72 hours after admission, DVT was present in 18 (34.0%) patients in the subgroup receiving venous thromboembolism prophylaxis versus 35 (66.0%) patients in the nonprophylaxis group (\n              P\n              =0.010).
+\n            \n          \n          \n            Conclusions:\n            The prevalence of DVT is high and is associated with adverse outcomes in hospitalized patients with COVID-19. Prophylaxis for venous thromboembolism may be protective in patients with a Padua protection score \u22654 after admission.
+ Our data seem to suggest that COVID-19 is probably an additional risk factor for DVT in hospitalized patients.
+\n          </t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%0, Xiaokai%Feng%xref no email%1, Danqing%Zhang%xref no email%1, Chunguo%Jiang%xref no email%1, Heng%Mei%xref no email%1, Jing%Wang%xref no email%1, Cuihong%Zhang%xref no email%1, Hong%Li%xref no email%1, Xiaoling%Xia%xref no email%1, Shuangshuang%Kong%xref no email%1, Jia%Liao%xref no email%1, Huijun%Jia%xref no email%1, Xueqin%Pang%xref no email%1, Yue%Song%xref no email%1, Ying%Tian%xref no email%1, Bin%Wang%xref no email%1, Chun%Wu%xref no email%1, Hongliang%Yuan%xref no email%1, Yongxing%Zhang%xref no email%1, Yuman%Li%xref no email%1, Wei%Sun%xref no email%1, Yanting%Zhang%xref no email%1, Shuangshuang%Zhu%xref no email%1, Shuyuan%Wang%xref no email%1, Yuji%Xie%xref no email%1, Shuping%Ge%xref no email%1, Liming%Zhang%xref no email%1, Yu%Hu%xref no email%0, Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,        Maxime%Leclerc%NULL%1,        Camille%Chochois%NULL%1,        Jean‐Michel%Monsallier%NULL%1,        Michel%Ramakers%NULL%1,        Malika%Auvray%NULL%1,        Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,        Charles%Tacquard%NULL%1,        François%Severac%NULL%0,        Ian%Leonard-Lorant%NULL%1,        Mickaël%Ohana%NULL%0,        Xavier%Delabranche%NULL%0,        Hamid%Merdji%NULL%1,        Raphaël%Clere-Jehl%NULL%1,        Malika%Schenck%NULL%1,        Florence%Fagot Gandet%NULL%1,        Samira%Fafi-Kremer%NULL%0,        Vincent%Castelain%NULL%1,        Francis%Schneider%NULL%0,        Lélia%Grunebaum%NULL%1,        Eduardo%Anglés-Cano%NULL%1,        Laurent%Sattler%NULL%1,        Paul-Michel%Mertes%NULL%0,        Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,        E.%Cervilla-Muñoz%NULL%1,        L.%Ordieres-Ortega%NULL%1,        A.%Parra-Virto%NULL%1,        M.%Toledano-Macías%NULL%1,        N.%Toledo-Samaniego%NULL%1,        A.%García-García%NULL%1,        I.%García-Fernández-Bravo%NULL%1,        Z.%Ji%NULL%1,        J.%de-Miguel-Diez%NULL%1,        L.A.%Álvarez-Sala-Walther%NULL%1,        J.%del-Toro-Cervera%NULL%1,        F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,        Shuo%Chen%NULL%1,        Xiunan%Li%NULL%1,        Shi%Liu%NULL%1,        Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,        Michiel%Coppens%NULL%1,        Thijs F.%van Haaps%NULL%1,        Merijn%Foppen%NULL%1,        Alexander P.%Vlaar%NULL%1,        Marcella C.A.%Müller%NULL%1,        Catherine C.S.%Bouman%NULL%1,        Ludo F.M.%Beenen%NULL%1,        Ruud S.%Kootte%NULL%1,        Jarom%Heijmans%NULL%1,        Loek P.%Smits%NULL%1,        Peter I.%Bonta%NULL%1,        Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Pulmonary Embolism in Patients With COVID-19"</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1, Julien%Goutay%xref no email%1, Morgan%Caplan%xref no email%1, Erika%Parmentier%xref no email%1, Thibault%Duburcq%xref no email%1, Fanny%Lassalle%xref no email%1, Emmanuelle%Jeanpierre%xref no email%1, Antoine%Rauch%xref no email%1, Julien%Labreuche%xref no email%1, Sophie%Susen%xref no email%1, Nicolas%Cousin%xref no email%0, Arthur%Durand%xref no email%1, Ahmed%El Kalioubie%xref no email%1, Rapha\u00ebl%Favory%xref no email%1, Patrick%Girardie%xref no email%1, Marion%Houard%xref no email%1, Emmanuelle%Jaillette%xref no email%1, Merc\u00e9%Jourdain%xref no email%1, Geoffrey%Ledoux%xref no email%1, Daniel%Mathieu%xref no email%1, Anne-Sophie%Moreau%xref no email%1, Christopher%Niles%xref no email%1, Saad%Nseir%xref no email%1, Thierry%Onimus%xref no email%1, S\u00e9bastien%Pr\u00e9au%xref no email%1, Laurent%Robriquet%xref no email%1, Anahita%Rouz\u00e9%xref no email%1, Arthur%Simonnet%xref no email%0, Sophie%Six%xref no email%1, Aur\u00e9lia%Toussaint%xref no email%1, Annabelle%Dupont%xref no email%1, Anne%Bauters%xref no email%1, Christophe%Zawadzki%xref no email%1, Camille%Paris%xref no email%1, Nathalie%Trillot%xref no email%1, B\u00e9n\u00e9dicte%Wibaut%xref no email%1, Audrey%Hochart%xref no email%1, Catherine%Marichez%xref no email%1, Vincent%Dalibard%xref no email%1, Sandrine%Vanderziepe%xref no email%1, Laureline%Bourgeois%xref no email%1, Ana\u00efs%Gaul%xref no email%1, Aur\u00e9lie%Jospin%xref no email%1, Nataliia%Stepina%xref no email%1, B\u00e9n\u00e9dicte%Pradines%xref no email%1, Antoine%Tournoys%xref no email%1, Thierry%Brousseau%xref no email%1, Martine%R\u00e9my%xref no email%1, Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,        Hippolyte%Monnier%NULL%1,        Ines%Saab%NULL%1,        Mickael%Tordjman%NULL%1,        Hendy%Abdoul%NULL%1,        Laure%Fournier%NULL%1,        Olivier%Sanchez%NULL%1,        Christine%Lorut%NULL%1,        Guillaume%Chassagnon%NULL%1,        Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,        Elena M.%Bertinato%NULL%1,        Simone%Birocchi%NULL%1,        Carolina%Brizio%NULL%1,        Daniele%Malavolta%NULL%1,        Marco%Manzoni%NULL%1,        Gesualdo%Muscarella%NULL%1,        Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,         Xavier%Delabranche%NULL%3,         Xavier%Delabranche%NULL%0,         François%Severac%NULL%3,         François%Severac%NULL%0,         Julie%Helms%NULL%0,         Julie%Helms%NULL%0,         Coralie%Pauzet%NULL%1,         Olivier%Collange%NULL%1,         Françis%Schneider%NULL%1,         Aissam%Labani%NULL%2,         Aissam%Labani%NULL%0,         Pascal%Bilbault%NULL%1,         Sébastien%Moliere%NULL%2,         Sébastien%Moliere%NULL%0,         Pierre%Leyendecker%NULL%1,         Catherine%Roy%NULL%2,         Catherine%Roy%NULL%0,         Mickaël%Ohana%mickael.ohana@gmail.com%3,         Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,         Julien%Behr%NULL%2,         Julien%Behr%NULL%0,         Paul%Calame%NULL%1,         Sébastien%Aubry%NULL%1,         Eric%Delabrousse%NULL%2,         Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,         Caroline%Bouzad%NULL%2,         Caroline%Bouzad%NULL%0,         Evelyne%Peroux%NULL%1,         Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,         Rebecca S.%Karp Leaf%NULL%1,         Walter H.%Dzik%NULL%1,         Jonathan C.T.%Carlson%NULL%1,         Annemarie E.%Fogerty%NULL%1,         Anem%Waheed%NULL%1,         Katayoon%Goodarzi%NULL%1,         Pavan K.%Bendapudi%NULL%1,         Larissa%Bornikova%NULL%1,         Shruti%Gupta%NULL%1,         David E.%Leaf%NULL%1,         David J.%Kuter%NULL%1,         Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,  Feifei%Yan%xref no email%1,  Zhouming%Deng%xref no email%1,  Sheng%Zhang%xref no email%0,  Lingfei%Xiao%xref no email%1,  Meng%Wu%xref no email%1,  Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,  Xiaokai%Feng%xref no email%1,  Danqing%Zhang%xref no email%1,  Chunguo%Jiang%xref no email%1,  Heng%Mei%xref no email%1,  Jing%Wang%xref no email%1,  Cuihong%Zhang%xref no email%1,  Hong%Li%xref no email%1,  Xiaoling%Xia%xref no email%1,  Shuangshuang%Kong%xref no email%1,  Jia%Liao%xref no email%1,  Huijun%Jia%xref no email%1,  Xueqin%Pang%xref no email%1,  Yue%Song%xref no email%1,  Ying%Tian%xref no email%1,  Bin%Wang%xref no email%1,  Chun%Wu%xref no email%1,  Hongliang%Yuan%xref no email%1,  Yongxing%Zhang%xref no email%1,  Yuman%Li%xref no email%1,  Wei%Sun%xref no email%1,  Yanting%Zhang%xref no email%1,  Shuangshuang%Zhu%xref no email%1,  Shuyuan%Wang%xref no email%1,  Yuji%Xie%xref no email%1,  Shuping%Ge%xref no email%1,  Liming%Zhang%xref no email%1,  Yu%Hu%xref no email%0,  Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,         Maxime%Leclerc%NULL%1,         Camille%Chochois%NULL%1,         Jean‐Michel%Monsallier%NULL%1,         Michel%Ramakers%NULL%1,         Malika%Auvray%NULL%1,         Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,         Charles%Tacquard%NULL%1,         François%Severac%NULL%0,         Ian%Leonard-Lorant%NULL%1,         Mickaël%Ohana%NULL%0,         Xavier%Delabranche%NULL%0,         Hamid%Merdji%NULL%1,         Raphaël%Clere-Jehl%NULL%1,         Malika%Schenck%NULL%1,         Florence%Fagot Gandet%NULL%1,         Samira%Fafi-Kremer%NULL%0,         Vincent%Castelain%NULL%1,         Francis%Schneider%NULL%0,         Lélia%Grunebaum%NULL%1,         Eduardo%Anglés-Cano%NULL%1,         Laurent%Sattler%NULL%1,         Paul-Michel%Mertes%NULL%0,         Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,         E.%Cervilla-Muñoz%NULL%1,         L.%Ordieres-Ortega%NULL%1,         A.%Parra-Virto%NULL%1,         M.%Toledano-Macías%NULL%1,         N.%Toledo-Samaniego%NULL%1,         A.%García-García%NULL%1,         I.%García-Fernández-Bravo%NULL%1,         Z.%Ji%NULL%1,         J.%de-Miguel-Diez%NULL%1,         L.A.%Álvarez-Sala-Walther%NULL%1,         J.%del-Toro-Cervera%NULL%1,         F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,         Shuo%Chen%NULL%1,         Xiunan%Li%NULL%1,         Shi%Liu%NULL%1,         Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,         Michiel%Coppens%NULL%1,         Thijs F.%van Haaps%NULL%1,         Merijn%Foppen%NULL%1,         Alexander P.%Vlaar%NULL%1,         Marcella C.A.%Müller%NULL%1,         Catherine C.S.%Bouman%NULL%1,         Ludo F.M.%Beenen%NULL%1,         Ruud S.%Kootte%NULL%1,         Jarom%Heijmans%NULL%1,         Loek P.%Smits%NULL%1,         Peter I.%Bonta%NULL%1,         Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,  Julien%Goutay%xref no email%1,  Morgan%Caplan%xref no email%1,  Erika%Parmentier%xref no email%1,  Thibault%Duburcq%xref no email%1,  Fanny%Lassalle%xref no email%1,  Emmanuelle%Jeanpierre%xref no email%1,  Antoine%Rauch%xref no email%1,  Julien%Labreuche%xref no email%1,  Sophie%Susen%xref no email%1,  Nicolas%Cousin%xref no email%1,  Arthur%Durand%xref no email%1,  Ahmed%El Kalioubie%xref no email%1,  Rapha\u00ebl%Favory%xref no email%1,  Patrick%Girardie%xref no email%1,  Marion%Houard%xref no email%1,  Emmanuelle%Jaillette%xref no email%1,  Merc\u00e9%Jourdain%xref no email%1,  Geoffrey%Ledoux%xref no email%1,  Daniel%Mathieu%xref no email%1,  Anne-Sophie%Moreau%xref no email%1,  Christopher%Niles%xref no email%1,  Saad%Nseir%xref no email%1,  Thierry%Onimus%xref no email%1,  S\u00e9bastien%Pr\u00e9au%xref no email%1,  Laurent%Robriquet%xref no email%1,  Anahita%Rouz\u00e9%xref no email%1,  Arthur%Simonnet%xref no email%1,  Sophie%Six%xref no email%1,  Aur\u00e9lia%Toussaint%xref no email%1,  Annabelle%Dupont%xref no email%1,  Anne%Bauters%xref no email%1,  Christophe%Zawadzki%xref no email%1,  Camille%Paris%xref no email%1,  Nathalie%Trillot%xref no email%1,  B\u00e9n\u00e9dicte%Wibaut%xref no email%1,  Audrey%Hochart%xref no email%1,  Catherine%Marichez%xref no email%1,  Vincent%Dalibard%xref no email%1,  Sandrine%Vanderziepe%xref no email%1,  Laureline%Bourgeois%xref no email%1,  Ana\u00efs%Gaul%xref no email%1,  Aur\u00e9lie%Jospin%xref no email%1,  Nataliia%Stepina%xref no email%1,  B\u00e9n\u00e9dicte%Pradines%xref no email%1,  Antoine%Tournoys%xref no email%1,  Thierry%Brousseau%xref no email%1,  Martine%R\u00e9my%xref no email%1,  Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,         Hippolyte%Monnier%NULL%1,         Ines%Saab%NULL%1,         Mickael%Tordjman%NULL%1,         Hendy%Abdoul%NULL%1,         Laure%Fournier%NULL%1,         Olivier%Sanchez%NULL%1,         Christine%Lorut%NULL%1,         Guillaume%Chassagnon%NULL%1,         Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,         Elena M.%Bertinato%NULL%1,         Simone%Birocchi%NULL%1,         Carolina%Brizio%NULL%1,         Daniele%Malavolta%NULL%1,         Marco%Manzoni%NULL%1,         Gesualdo%Muscarella%NULL%1,         Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -971,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1000,7 +1114,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1029,7 +1143,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1052,22 +1166,22 @@
         <v>44026.0</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -1081,22 +1195,22 @@
         <v>44026.0</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
@@ -1116,7 +1230,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1145,7 +1259,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1174,7 +1288,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1203,7 +1317,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1232,7 +1346,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1255,22 +1369,22 @@
         <v>44026.0</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
@@ -1290,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1319,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="215">
   <si>
     <t>Doi</t>
   </si>
@@ -718,6 +718,90 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,         Elena M.%Bertinato%NULL%1,         Simone%Birocchi%NULL%1,         Carolina%Brizio%NULL%1,         Daniele%Malavolta%NULL%1,         Marco%Manzoni%NULL%1,         Gesualdo%Muscarella%NULL%1,         Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,          Xavier%Delabranche%NULL%3,          Xavier%Delabranche%NULL%0,          François%Severac%NULL%3,          François%Severac%NULL%0,          Julie%Helms%NULL%0,          Julie%Helms%NULL%0,          Coralie%Pauzet%NULL%1,          Olivier%Collange%NULL%1,          Françis%Schneider%NULL%1,          Aissam%Labani%NULL%2,          Aissam%Labani%NULL%0,          Pascal%Bilbault%NULL%1,          Sébastien%Moliere%NULL%2,          Sébastien%Moliere%NULL%0,          Pierre%Leyendecker%NULL%1,          Catherine%Roy%NULL%2,          Catherine%Roy%NULL%0,          Mickaël%Ohana%mickael.ohana@gmail.com%3,          Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,          Julien%Behr%NULL%2,          Julien%Behr%NULL%0,          Paul%Calame%NULL%1,          Sébastien%Aubry%NULL%1,          Eric%Delabrousse%NULL%2,          Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,          Caroline%Bouzad%NULL%2,          Caroline%Bouzad%NULL%0,          Evelyne%Peroux%NULL%1,          Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,          Rebecca S.%Karp Leaf%NULL%1,          Walter H.%Dzik%NULL%1,          Jonathan C.T.%Carlson%NULL%1,          Annemarie E.%Fogerty%NULL%1,          Anem%Waheed%NULL%1,          Katayoon%Goodarzi%NULL%1,          Pavan K.%Bendapudi%NULL%1,          Larissa%Bornikova%NULL%1,          Shruti%Gupta%NULL%1,          David E.%Leaf%NULL%1,          David J.%Kuter%NULL%1,          Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,   Feifei%Yan%xref no email%1,   Zhouming%Deng%xref no email%1,   Sheng%Zhang%xref no email%0,   Lingfei%Xiao%xref no email%1,   Meng%Wu%xref no email%1,   Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,   Xiaokai%Feng%xref no email%1,   Danqing%Zhang%xref no email%1,   Chunguo%Jiang%xref no email%1,   Heng%Mei%xref no email%1,   Jing%Wang%xref no email%1,   Cuihong%Zhang%xref no email%1,   Hong%Li%xref no email%1,   Xiaoling%Xia%xref no email%1,   Shuangshuang%Kong%xref no email%1,   Jia%Liao%xref no email%1,   Huijun%Jia%xref no email%1,   Xueqin%Pang%xref no email%1,   Yue%Song%xref no email%1,   Ying%Tian%xref no email%1,   Bin%Wang%xref no email%1,   Chun%Wu%xref no email%1,   Hongliang%Yuan%xref no email%1,   Yongxing%Zhang%xref no email%1,   Yuman%Li%xref no email%1,   Wei%Sun%xref no email%1,   Yanting%Zhang%xref no email%1,   Shuangshuang%Zhu%xref no email%1,   Shuyuan%Wang%xref no email%1,   Yuji%Xie%xref no email%1,   Shuping%Ge%xref no email%1,   Liming%Zhang%xref no email%1,   Yu%Hu%xref no email%0,   Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,          Maxime%Leclerc%NULL%1,          Camille%Chochois%NULL%1,          Jean‐Michel%Monsallier%NULL%1,          Michel%Ramakers%NULL%1,          Malika%Auvray%NULL%1,          Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,          Charles%Tacquard%NULL%1,          François%Severac%NULL%0,          Ian%Leonard-Lorant%NULL%1,          Mickaël%Ohana%NULL%0,          Xavier%Delabranche%NULL%0,          Hamid%Merdji%NULL%1,          Raphaël%Clere-Jehl%NULL%1,          Malika%Schenck%NULL%1,          Florence%Fagot Gandet%NULL%1,          Samira%Fafi-Kremer%NULL%0,          Vincent%Castelain%NULL%1,          Francis%Schneider%NULL%0,          Lélia%Grunebaum%NULL%1,          Eduardo%Anglés-Cano%NULL%1,          Laurent%Sattler%NULL%1,          Paul-Michel%Mertes%NULL%0,          Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,          E.%Cervilla-Muñoz%NULL%1,          L.%Ordieres-Ortega%NULL%1,          A.%Parra-Virto%NULL%1,          M.%Toledano-Macías%NULL%1,          N.%Toledo-Samaniego%NULL%1,          A.%García-García%NULL%1,          I.%García-Fernández-Bravo%NULL%1,          Z.%Ji%NULL%1,          J.%de-Miguel-Diez%NULL%1,          L.A.%Álvarez-Sala-Walther%NULL%1,          J.%del-Toro-Cervera%NULL%1,          F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,          Shuo%Chen%NULL%1,          Xiunan%Li%NULL%1,          Shi%Liu%NULL%1,          Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,          Michiel%Coppens%NULL%1,          Thijs F.%van Haaps%NULL%1,          Merijn%Foppen%NULL%1,          Alexander P.%Vlaar%NULL%1,          Marcella C.A.%Müller%NULL%1,          Catherine C.S.%Bouman%NULL%1,          Ludo F.M.%Beenen%NULL%1,          Ruud S.%Kootte%NULL%1,          Jarom%Heijmans%NULL%1,          Loek P.%Smits%NULL%1,          Peter I.%Bonta%NULL%1,          Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,   Julien%Goutay%xref no email%1,   Morgan%Caplan%xref no email%1,   Erika%Parmentier%xref no email%1,   Thibault%Duburcq%xref no email%1,   Fanny%Lassalle%xref no email%1,   Emmanuelle%Jeanpierre%xref no email%1,   Antoine%Rauch%xref no email%1,   Julien%Labreuche%xref no email%1,   Sophie%Susen%xref no email%1,   Nicolas%Cousin%xref no email%1,   Arthur%Durand%xref no email%1,   Ahmed%El Kalioubie%xref no email%1,   Rapha\u00ebl%Favory%xref no email%1,   Patrick%Girardie%xref no email%1,   Marion%Houard%xref no email%1,   Emmanuelle%Jaillette%xref no email%1,   Merc\u00e9%Jourdain%xref no email%1,   Geoffrey%Ledoux%xref no email%1,   Daniel%Mathieu%xref no email%1,   Anne-Sophie%Moreau%xref no email%1,   Christopher%Niles%xref no email%1,   Saad%Nseir%xref no email%1,   Thierry%Onimus%xref no email%1,   S\u00e9bastien%Pr\u00e9au%xref no email%1,   Laurent%Robriquet%xref no email%1,   Anahita%Rouz\u00e9%xref no email%1,   Arthur%Simonnet%xref no email%1,   Sophie%Six%xref no email%1,   Aur\u00e9lia%Toussaint%xref no email%1,   Annabelle%Dupont%xref no email%1,   Anne%Bauters%xref no email%1,   Christophe%Zawadzki%xref no email%1,   Camille%Paris%xref no email%1,   Nathalie%Trillot%xref no email%1,   B\u00e9n\u00e9dicte%Wibaut%xref no email%1,   Audrey%Hochart%xref no email%1,   Catherine%Marichez%xref no email%1,   Vincent%Dalibard%xref no email%1,   Sandrine%Vanderziepe%xref no email%1,   Laureline%Bourgeois%xref no email%1,   Ana\u00efs%Gaul%xref no email%1,   Aur\u00e9lie%Jospin%xref no email%1,   Nataliia%Stepina%xref no email%1,   B\u00e9n\u00e9dicte%Pradines%xref no email%1,   Antoine%Tournoys%xref no email%1,   Thierry%Brousseau%xref no email%1,   Martine%R\u00e9my%xref no email%1,   Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,          Hippolyte%Monnier%NULL%1,          Ines%Saab%NULL%1,          Mickael%Tordjman%NULL%1,          Hendy%Abdoul%NULL%1,          Laure%Fournier%NULL%1,          Olivier%Sanchez%NULL%1,          Christine%Lorut%NULL%1,          Guillaume%Chassagnon%NULL%1,          Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,          Elena M.%Bertinato%NULL%1,          Simone%Birocchi%NULL%1,          Carolina%Brizio%NULL%1,          Daniele%Malavolta%NULL%1,          Marco%Manzoni%NULL%1,          Gesualdo%Muscarella%NULL%1,          Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,           Xavier%Delabranche%NULL%3,           Xavier%Delabranche%NULL%0,           François%Severac%NULL%3,           François%Severac%NULL%0,           Julie%Helms%NULL%0,           Julie%Helms%NULL%0,           Coralie%Pauzet%NULL%1,           Olivier%Collange%NULL%1,           Françis%Schneider%NULL%1,           Aissam%Labani%NULL%2,           Aissam%Labani%NULL%0,           Pascal%Bilbault%NULL%1,           Sébastien%Moliere%NULL%2,           Sébastien%Moliere%NULL%0,           Pierre%Leyendecker%NULL%1,           Catherine%Roy%NULL%2,           Catherine%Roy%NULL%0,           Mickaël%Ohana%mickael.ohana@gmail.com%3,           Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,           Julien%Behr%NULL%2,           Julien%Behr%NULL%0,           Paul%Calame%NULL%1,           Sébastien%Aubry%NULL%1,           Eric%Delabrousse%NULL%2,           Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,           Caroline%Bouzad%NULL%2,           Caroline%Bouzad%NULL%0,           Evelyne%Peroux%NULL%1,           Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,           Rebecca S.%Karp Leaf%NULL%1,           Walter H.%Dzik%NULL%1,           Jonathan C.T.%Carlson%NULL%1,           Annemarie E.%Fogerty%NULL%1,           Anem%Waheed%NULL%1,           Katayoon%Goodarzi%NULL%1,           Pavan K.%Bendapudi%NULL%1,           Larissa%Bornikova%NULL%1,           Shruti%Gupta%NULL%1,           David E.%Leaf%NULL%1,           David J.%Kuter%NULL%1,           Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,    Feifei%Yan%xref no email%1,    Zhouming%Deng%xref no email%1,    Sheng%Zhang%xref no email%0,    Lingfei%Xiao%xref no email%1,    Meng%Wu%xref no email%1,    Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,    Xiaokai%Feng%xref no email%1,    Danqing%Zhang%xref no email%1,    Chunguo%Jiang%xref no email%1,    Heng%Mei%xref no email%1,    Jing%Wang%xref no email%1,    Cuihong%Zhang%xref no email%1,    Hong%Li%xref no email%1,    Xiaoling%Xia%xref no email%1,    Shuangshuang%Kong%xref no email%1,    Jia%Liao%xref no email%1,    Huijun%Jia%xref no email%1,    Xueqin%Pang%xref no email%1,    Yue%Song%xref no email%1,    Ying%Tian%xref no email%1,    Bin%Wang%xref no email%1,    Chun%Wu%xref no email%1,    Hongliang%Yuan%xref no email%1,    Yongxing%Zhang%xref no email%1,    Yuman%Li%xref no email%1,    Wei%Sun%xref no email%1,    Yanting%Zhang%xref no email%1,    Shuangshuang%Zhu%xref no email%1,    Shuyuan%Wang%xref no email%1,    Yuji%Xie%xref no email%1,    Shuping%Ge%xref no email%1,    Liming%Zhang%xref no email%1,    Yu%Hu%xref no email%0,    Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,           Maxime%Leclerc%NULL%1,           Camille%Chochois%NULL%1,           Jean‐Michel%Monsallier%NULL%1,           Michel%Ramakers%NULL%1,           Malika%Auvray%NULL%1,           Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,           Charles%Tacquard%NULL%1,           François%Severac%NULL%0,           Ian%Leonard-Lorant%NULL%1,           Mickaël%Ohana%NULL%0,           Xavier%Delabranche%NULL%0,           Hamid%Merdji%NULL%1,           Raphaël%Clere-Jehl%NULL%1,           Malika%Schenck%NULL%1,           Florence%Fagot Gandet%NULL%1,           Samira%Fafi-Kremer%NULL%0,           Vincent%Castelain%NULL%1,           Francis%Schneider%NULL%0,           Lélia%Grunebaum%NULL%1,           Eduardo%Anglés-Cano%NULL%1,           Laurent%Sattler%NULL%1,           Paul-Michel%Mertes%NULL%0,           Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,           E.%Cervilla-Muñoz%NULL%1,           L.%Ordieres-Ortega%NULL%1,           A.%Parra-Virto%NULL%1,           M.%Toledano-Macías%NULL%1,           N.%Toledo-Samaniego%NULL%1,           A.%García-García%NULL%1,           I.%García-Fernández-Bravo%NULL%1,           Z.%Ji%NULL%1,           J.%de-Miguel-Diez%NULL%1,           L.A.%Álvarez-Sala-Walther%NULL%1,           J.%del-Toro-Cervera%NULL%1,           F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,           Shuo%Chen%NULL%1,           Xiunan%Li%NULL%1,           Shi%Liu%NULL%1,           Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,           Michiel%Coppens%NULL%1,           Thijs F.%van Haaps%NULL%1,           Merijn%Foppen%NULL%1,           Alexander P.%Vlaar%NULL%1,           Marcella C.A.%Müller%NULL%1,           Catherine C.S.%Bouman%NULL%1,           Ludo F.M.%Beenen%NULL%1,           Ruud S.%Kootte%NULL%1,           Jarom%Heijmans%NULL%1,           Loek P.%Smits%NULL%1,           Peter I.%Bonta%NULL%1,           Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,    Julien%Goutay%xref no email%1,    Morgan%Caplan%xref no email%1,    Erika%Parmentier%xref no email%1,    Thibault%Duburcq%xref no email%1,    Fanny%Lassalle%xref no email%1,    Emmanuelle%Jeanpierre%xref no email%1,    Antoine%Rauch%xref no email%1,    Julien%Labreuche%xref no email%1,    Sophie%Susen%xref no email%1,    Nicolas%Cousin%xref no email%1,    Arthur%Durand%xref no email%1,    Ahmed%El Kalioubie%xref no email%1,    Rapha\u00ebl%Favory%xref no email%1,    Patrick%Girardie%xref no email%1,    Marion%Houard%xref no email%1,    Emmanuelle%Jaillette%xref no email%1,    Merc\u00e9%Jourdain%xref no email%1,    Geoffrey%Ledoux%xref no email%1,    Daniel%Mathieu%xref no email%1,    Anne-Sophie%Moreau%xref no email%1,    Christopher%Niles%xref no email%1,    Saad%Nseir%xref no email%1,    Thierry%Onimus%xref no email%1,    S\u00e9bastien%Pr\u00e9au%xref no email%1,    Laurent%Robriquet%xref no email%1,    Anahita%Rouz\u00e9%xref no email%1,    Arthur%Simonnet%xref no email%1,    Sophie%Six%xref no email%1,    Aur\u00e9lia%Toussaint%xref no email%1,    Annabelle%Dupont%xref no email%1,    Anne%Bauters%xref no email%1,    Christophe%Zawadzki%xref no email%1,    Camille%Paris%xref no email%1,    Nathalie%Trillot%xref no email%1,    B\u00e9n\u00e9dicte%Wibaut%xref no email%1,    Audrey%Hochart%xref no email%1,    Catherine%Marichez%xref no email%1,    Vincent%Dalibard%xref no email%1,    Sandrine%Vanderziepe%xref no email%1,    Laureline%Bourgeois%xref no email%1,    Ana\u00efs%Gaul%xref no email%1,    Aur\u00e9lie%Jospin%xref no email%1,    Nataliia%Stepina%xref no email%1,    B\u00e9n\u00e9dicte%Pradines%xref no email%1,    Antoine%Tournoys%xref no email%1,    Thierry%Brousseau%xref no email%1,    Martine%R\u00e9my%xref no email%1,    Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,           Hippolyte%Monnier%NULL%1,           Ines%Saab%NULL%1,           Mickael%Tordjman%NULL%1,           Hendy%Abdoul%NULL%1,           Laure%Fournier%NULL%1,           Olivier%Sanchez%NULL%1,           Christine%Lorut%NULL%1,           Guillaume%Chassagnon%NULL%1,           Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,           Elena M.%Bertinato%NULL%1,           Simone%Birocchi%NULL%1,           Carolina%Brizio%NULL%1,           Daniele%Malavolta%NULL%1,           Marco%Manzoni%NULL%1,           Gesualdo%Muscarella%NULL%1,           Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1085,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1114,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1143,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1172,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1201,7 +1285,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1230,7 +1314,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1259,7 +1343,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1288,7 +1372,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1317,7 +1401,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1346,7 +1430,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1375,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1404,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1433,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="245">
   <si>
     <t>Doi</t>
   </si>
@@ -802,6 +802,145 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,           Elena M.%Bertinato%NULL%1,           Simone%Birocchi%NULL%1,           Carolina%Brizio%NULL%1,           Daniele%Malavolta%NULL%1,           Marco%Manzoni%NULL%1,           Gesualdo%Muscarella%NULL%1,           Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,            Xavier%Delabranche%NULL%3,            Xavier%Delabranche%NULL%0,            François%Severac%NULL%3,            François%Severac%NULL%0,            Julie%Helms%NULL%0,            Julie%Helms%NULL%0,            Coralie%Pauzet%NULL%1,            Olivier%Collange%NULL%1,            Françis%Schneider%NULL%1,            Aissam%Labani%NULL%2,            Aissam%Labani%NULL%0,            Pascal%Bilbault%NULL%1,            Sébastien%Moliere%NULL%2,            Sébastien%Moliere%NULL%0,            Pierre%Leyendecker%NULL%1,            Catherine%Roy%NULL%2,            Catherine%Roy%NULL%0,            Mickaël%Ohana%mickael.ohana@gmail.com%3,            Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,            Julien%Behr%NULL%2,            Julien%Behr%NULL%0,            Paul%Calame%NULL%1,            Sébastien%Aubry%NULL%1,            Eric%Delabrousse%NULL%2,            Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To evaluate the prevalence of acute pulmonary embolism (APE) in non-hospitalized COVID-19 patients referred to CT pulmonary angiography (CTPA) by the emergency department.
+Methods
+From March 14 to April 6, 2020, 72 non-hospitalized patients referred by the emergency department to CTPA for COVID-19 pneumonia were retrospectively identified.
+ Relevant clinical and laboratory data and CT scan findings were collected for each patient.
+ CTPA scans were reviewed by two radiologists to determinate the presence or absence of APE.
+ Clinical classification, lung involvement of COVID-19 pneumonia, and CT total severity score were compared between APE group and non-APE group.
+Results
+APE was identified in 13 (18%) CTPA scans.
+ The mean age and D-dimer of patients from the APE group were higher in comparison with those from the non-APE group (74.4 vs.
+ 59.6 years, p = 0.008, and 7.29 vs.
+ 3.29 μg/ml, p = 0.011).
+ There was no significant difference between APE and non-APE groups concerning clinical type, COVID-19 pneumonia lung lesions (ground-glass opacity: 85% vs.
+ 97%; consolidation: 69% vs.
+ 68%; crazy paving: 38% vs.
+ 37%; linear reticulation: 69% vs.
+ 78%), CT severity score (6.3 vs.
+ 7.1, p = 0.365), quality of CTPA (1.8 vs.
+ 2.0, p = 0.518), and pleural effusion (38% vs.
+ 19%, p = 0.146).
+Conclusions
+Non-hospitalized patients with COVID-19 pneumonia referred to CT scan by the emergency departments are at risk of APE.
+ The presence of APE was not limited to severe or critical clinical type of COVID-19 pneumonia.
+Key Points
+• Acute pulmonary embolism was found in 18% of non-hospitalized COVID-19 patients referred by the emergency department to CTPA.
+ Two (15%) patients had main, four (30%) lobar, and seven (55%) segmental acute pulmonary embolism.
+</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,            Caroline%Bouzad%NULL%2,            Caroline%Bouzad%NULL%0,            Evelyne%Peroux%NULL%1,            Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,            Rebecca S.%Karp Leaf%NULL%1,            Walter H.%Dzik%NULL%1,            Jonathan C.T.%Carlson%NULL%1,            Annemarie E.%Fogerty%NULL%1,            Anem%Waheed%NULL%1,            Katayoon%Goodarzi%NULL%1,            Pavan K.%Bendapudi%NULL%1,            Larissa%Bornikova%NULL%1,            Shruti%Gupta%NULL%1,            David E.%Leaf%NULL%1,            David J.%Kuter%NULL%1,            Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,     Feifei%Yan%xref no email%1,     Zhouming%Deng%xref no email%1,     Sheng%Zhang%xref no email%0,     Lingfei%Xiao%xref no email%1,     Meng%Wu%xref no email%1,     Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,     Xiaokai%Feng%xref no email%1,     Danqing%Zhang%xref no email%1,     Chunguo%Jiang%xref no email%1,     Heng%Mei%xref no email%1,     Jing%Wang%xref no email%1,     Cuihong%Zhang%xref no email%1,     Hong%Li%xref no email%1,     Xiaoling%Xia%xref no email%1,     Shuangshuang%Kong%xref no email%1,     Jia%Liao%xref no email%1,     Huijun%Jia%xref no email%1,     Xueqin%Pang%xref no email%1,     Yue%Song%xref no email%1,     Ying%Tian%xref no email%1,     Bin%Wang%xref no email%1,     Chun%Wu%xref no email%1,     Hongliang%Yuan%xref no email%1,     Yongxing%Zhang%xref no email%1,     Yuman%Li%xref no email%1,     Wei%Sun%xref no email%1,     Yanting%Zhang%xref no email%1,     Shuangshuang%Zhu%xref no email%1,     Shuyuan%Wang%xref no email%1,     Yuji%Xie%xref no email%1,     Shuping%Ge%xref no email%1,     Liming%Zhang%xref no email%1,     Yu%Hu%xref no email%0,     Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,            Maxime%Leclerc%NULL%1,            Camille%Chochois%NULL%1,            Jean‐Michel%Monsallier%NULL%1,            Michel%Ramakers%NULL%1,            Malika%Auvray%NULL%1,            Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Little evidence of increased thrombotic risk is available in COVID-19 patients.
+ Our purpose was to assess thrombotic risk in severe forms of SARS-CoV-2 infection.
+Methods
+All patients referred to 4 intensive care units (ICUs) from two centers of a French tertiary hospital for acute respiratory distress syndrome (ARDS) due to COVID-19 between March 3rd and 31st 2020 were included.
+ Medical history, symptoms, biological data and imaging were prospectively collected.
+ Propensity score matching was performed to analyze the occurrence of thromboembolic events between non-COVID-19 ARDS and COVID-19 ARDS patients.
+Results
+150 COVID-19 patients were included (122 men, median age 63 [53; 71] years, SAPSII 49 [37; 64] points).
+ Sixty-four clinically relevant thrombotic complications were diagnosed in 150 patients, mainly pulmonary embolisms (16.7%).
+ 28/29 patients (96.6%) receiving continuous renal replacement therapy experienced circuit clotting.
+ Three thrombotic occlusions (in 2 patients) of centrifugal pump occurred in 12 patients (8%) supported by ECMO.
+ Most patients (&amp;gt; 95%) had elevated D-dimer and fibrinogen.
+ No patient developed disseminated intravascular coagulation.
+ Von Willebrand (vWF) activity, vWF antigen and FVIII were considerably increased, and 50/57 tested patients (87.7%) had positive lupus anticoagulant.
+ Comparison with non-COVID-19 ARDS patients (n = 145) confirmed that COVID-19 ARDS patients (n = 77) developed significantly more thrombotic complications, mainly pulmonary embolisms (11.7 vs.
+ 2.1%, p &amp;lt; 0.008).
+ Coagulation parameters significantly differed between the two groups.
+Conclusion
+Despite anticoagulation, a high number of patients with ARDS secondary to COVID-19 developed life-threatening thrombotic complications.
+ Higher anticoagulation targets than in usual critically ill patients should therefore probably be suggested.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06062-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,            Charles%Tacquard%NULL%1,            François%Severac%NULL%0,            Ian%Leonard-Lorant%NULL%1,            Mickaël%Ohana%NULL%0,            Xavier%Delabranche%NULL%0,            Hamid%Merdji%NULL%1,            Raphaël%Clere-Jehl%NULL%1,            Malika%Schenck%NULL%1,            Florence%Fagot Gandet%NULL%1,            Samira%Fafi-Kremer%NULL%0,            Vincent%Castelain%NULL%1,            Francis%Schneider%NULL%0,            Lélia%Grunebaum%NULL%1,            Eduardo%Anglés-Cano%NULL%1,            Laurent%Sattler%NULL%1,            Paul-Michel%Mertes%NULL%0,            Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,            E.%Cervilla-Muñoz%NULL%1,            L.%Ordieres-Ortega%NULL%1,            A.%Parra-Virto%NULL%1,            M.%Toledano-Macías%NULL%1,            N.%Toledo-Samaniego%NULL%1,            A.%García-García%NULL%1,            I.%García-Fernández-Bravo%NULL%1,            Z.%Ji%NULL%1,            J.%de-Miguel-Diez%NULL%1,            L.A.%Álvarez-Sala-Walther%NULL%1,            J.%del-Toro-Cervera%NULL%1,            F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,            Shuo%Chen%NULL%1,            Xiunan%Li%NULL%1,            Shi%Liu%NULL%1,            Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,            Michiel%Coppens%NULL%1,            Thijs F.%van Haaps%NULL%1,            Merijn%Foppen%NULL%1,            Alexander P.%Vlaar%NULL%1,            Marcella C.A.%Müller%NULL%1,            Catherine C.S.%Bouman%NULL%1,            Ludo F.M.%Beenen%NULL%1,            Ruud S.%Kootte%NULL%1,            Jarom%Heijmans%NULL%1,            Loek P.%Smits%NULL%1,            Peter I.%Bonta%NULL%1,            Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,     Julien%Goutay%xref no email%1,     Morgan%Caplan%xref no email%1,     Erika%Parmentier%xref no email%1,     Thibault%Duburcq%xref no email%1,     Fanny%Lassalle%xref no email%1,     Emmanuelle%Jeanpierre%xref no email%1,     Antoine%Rauch%xref no email%1,     Julien%Labreuche%xref no email%1,     Sophie%Susen%xref no email%1,     Nicolas%Cousin%xref no email%1,     Arthur%Durand%xref no email%1,     Ahmed%El Kalioubie%xref no email%1,     Rapha\u00ebl%Favory%xref no email%1,     Patrick%Girardie%xref no email%1,     Marion%Houard%xref no email%1,     Emmanuelle%Jaillette%xref no email%1,     Merc\u00e9%Jourdain%xref no email%1,     Geoffrey%Ledoux%xref no email%1,     Daniel%Mathieu%xref no email%1,     Anne-Sophie%Moreau%xref no email%1,     Christopher%Niles%xref no email%1,     Saad%Nseir%xref no email%1,     Thierry%Onimus%xref no email%1,     S\u00e9bastien%Pr\u00e9au%xref no email%1,     Laurent%Robriquet%xref no email%1,     Anahita%Rouz\u00e9%xref no email%1,     Arthur%Simonnet%xref no email%1,     Sophie%Six%xref no email%1,     Aur\u00e9lia%Toussaint%xref no email%1,     Annabelle%Dupont%xref no email%1,     Anne%Bauters%xref no email%1,     Christophe%Zawadzki%xref no email%1,     Camille%Paris%xref no email%1,     Nathalie%Trillot%xref no email%1,     B\u00e9n\u00e9dicte%Wibaut%xref no email%1,     Audrey%Hochart%xref no email%1,     Catherine%Marichez%xref no email%1,     Vincent%Dalibard%xref no email%1,     Sandrine%Vanderziepe%xref no email%1,     Laureline%Bourgeois%xref no email%1,     Ana\u00efs%Gaul%xref no email%1,     Aur\u00e9lie%Jospin%xref no email%1,     Nataliia%Stepina%xref no email%1,     B\u00e9n\u00e9dicte%Pradines%xref no email%1,     Antoine%Tournoys%xref no email%1,     Thierry%Brousseau%xref no email%1,     Martine%R\u00e9my%xref no email%1,     Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,            Hippolyte%Monnier%NULL%1,            Ines%Saab%NULL%1,            Mickael%Tordjman%NULL%1,            Hendy%Abdoul%NULL%1,            Laure%Fournier%NULL%1,            Olivier%Sanchez%NULL%1,            Christine%Lorut%NULL%1,            Guillaume%Chassagnon%NULL%1,            Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,            Elena M.%Bertinato%NULL%1,            Simone%Birocchi%NULL%1,            Carolina%Brizio%NULL%1,            Daniele%Malavolta%NULL%1,            Marco%Manzoni%NULL%1,            Gesualdo%Muscarella%NULL%1,            Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,             Xavier%Delabranche%NULL%3,             Xavier%Delabranche%NULL%0,             François%Severac%NULL%3,             François%Severac%NULL%0,             Julie%Helms%NULL%0,             Julie%Helms%NULL%0,             Coralie%Pauzet%NULL%1,             Olivier%Collange%NULL%1,             Françis%Schneider%NULL%1,             Aissam%Labani%NULL%2,             Aissam%Labani%NULL%0,             Pascal%Bilbault%NULL%1,             Sébastien%Moliere%NULL%2,             Sébastien%Moliere%NULL%0,             Pierre%Leyendecker%NULL%1,             Catherine%Roy%NULL%2,             Catherine%Roy%NULL%0,             Mickaël%Ohana%mickael.ohana@gmail.com%3,             Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,             Julien%Behr%NULL%2,             Julien%Behr%NULL%0,             Paul%Calame%NULL%1,             Sébastien%Aubry%NULL%1,             Eric%Delabrousse%NULL%2,             Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,             Caroline%Bouzad%NULL%2,             Caroline%Bouzad%NULL%0,             Evelyne%Peroux%NULL%1,             Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,             Rebecca S.%Karp Leaf%NULL%1,             Walter H.%Dzik%NULL%1,             Jonathan C.T.%Carlson%NULL%1,             Annemarie E.%Fogerty%NULL%1,             Anem%Waheed%NULL%1,             Katayoon%Goodarzi%NULL%1,             Pavan K.%Bendapudi%NULL%1,             Larissa%Bornikova%NULL%1,             Shruti%Gupta%NULL%1,             David E.%Leaf%NULL%1,             David J.%Kuter%NULL%1,             Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,      Feifei%Yan%xref no email%1,      Zhouming%Deng%xref no email%1,      Sheng%Zhang%xref no email%0,      Lingfei%Xiao%xref no email%1,      Meng%Wu%xref no email%1,      Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,      Xiaokai%Feng%xref no email%1,      Danqing%Zhang%xref no email%1,      Chunguo%Jiang%xref no email%1,      Heng%Mei%xref no email%1,      Jing%Wang%xref no email%1,      Cuihong%Zhang%xref no email%1,      Hong%Li%xref no email%1,      Xiaoling%Xia%xref no email%1,      Shuangshuang%Kong%xref no email%1,      Jia%Liao%xref no email%1,      Huijun%Jia%xref no email%1,      Xueqin%Pang%xref no email%1,      Yue%Song%xref no email%1,      Ying%Tian%xref no email%1,      Bin%Wang%xref no email%1,      Chun%Wu%xref no email%1,      Hongliang%Yuan%xref no email%1,      Yongxing%Zhang%xref no email%1,      Yuman%Li%xref no email%1,      Wei%Sun%xref no email%1,      Yanting%Zhang%xref no email%1,      Shuangshuang%Zhu%xref no email%1,      Shuyuan%Wang%xref no email%1,      Yuji%Xie%xref no email%1,      Shuping%Ge%xref no email%1,      Liming%Zhang%xref no email%1,      Yu%Hu%xref no email%0,      Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,             Maxime%Leclerc%NULL%1,             Camille%Chochois%NULL%1,             Jean‐Michel%Monsallier%NULL%1,             Michel%Ramakers%NULL%1,             Malika%Auvray%NULL%1,             Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,             Charles%Tacquard%NULL%1,             François%Severac%NULL%0,             Ian%Leonard-Lorant%NULL%1,             Mickaël%Ohana%NULL%0,             Xavier%Delabranche%NULL%0,             Hamid%Merdji%NULL%1,             Raphaël%Clere-Jehl%NULL%1,             Malika%Schenck%NULL%1,             Florence%Fagot Gandet%NULL%1,             Samira%Fafi-Kremer%NULL%0,             Vincent%Castelain%NULL%1,             Francis%Schneider%NULL%0,             Lélia%Grunebaum%NULL%1,             Eduardo%Anglés-Cano%NULL%1,             Laurent%Sattler%NULL%1,             Paul-Michel%Mertes%NULL%0,             Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,             E.%Cervilla-Muñoz%NULL%1,             L.%Ordieres-Ortega%NULL%1,             A.%Parra-Virto%NULL%1,             M.%Toledano-Macías%NULL%1,             N.%Toledo-Samaniego%NULL%1,             A.%García-García%NULL%1,             I.%García-Fernández-Bravo%NULL%1,             Z.%Ji%NULL%1,             J.%de-Miguel-Diez%NULL%1,             L.A.%Álvarez-Sala-Walther%NULL%1,             J.%del-Toro-Cervera%NULL%1,             F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,             Shuo%Chen%NULL%1,             Xiunan%Li%NULL%1,             Shi%Liu%NULL%1,             Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,             Michiel%Coppens%NULL%1,             Thijs F.%van Haaps%NULL%1,             Merijn%Foppen%NULL%1,             Alexander P.%Vlaar%NULL%1,             Marcella C.A.%Müller%NULL%1,             Catherine C.S.%Bouman%NULL%1,             Ludo F.M.%Beenen%NULL%1,             Ruud S.%Kootte%NULL%1,             Jarom%Heijmans%NULL%1,             Loek P.%Smits%NULL%1,             Peter I.%Bonta%NULL%1,             Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,      Julien%Goutay%xref no email%1,      Morgan%Caplan%xref no email%1,      Erika%Parmentier%xref no email%1,      Thibault%Duburcq%xref no email%1,      Fanny%Lassalle%xref no email%1,      Emmanuelle%Jeanpierre%xref no email%1,      Antoine%Rauch%xref no email%1,      Julien%Labreuche%xref no email%1,      Sophie%Susen%xref no email%1,      Nicolas%Cousin%xref no email%1,      Arthur%Durand%xref no email%1,      Ahmed%El Kalioubie%xref no email%1,      Rapha\u00ebl%Favory%xref no email%1,      Patrick%Girardie%xref no email%1,      Marion%Houard%xref no email%1,      Emmanuelle%Jaillette%xref no email%1,      Merc\u00e9%Jourdain%xref no email%1,      Geoffrey%Ledoux%xref no email%1,      Daniel%Mathieu%xref no email%1,      Anne-Sophie%Moreau%xref no email%1,      Christopher%Niles%xref no email%1,      Saad%Nseir%xref no email%1,      Thierry%Onimus%xref no email%1,      S\u00e9bastien%Pr\u00e9au%xref no email%1,      Laurent%Robriquet%xref no email%1,      Anahita%Rouz\u00e9%xref no email%1,      Arthur%Simonnet%xref no email%1,      Sophie%Six%xref no email%1,      Aur\u00e9lia%Toussaint%xref no email%1,      Annabelle%Dupont%xref no email%1,      Anne%Bauters%xref no email%1,      Christophe%Zawadzki%xref no email%1,      Camille%Paris%xref no email%1,      Nathalie%Trillot%xref no email%1,      B\u00e9n\u00e9dicte%Wibaut%xref no email%1,      Audrey%Hochart%xref no email%1,      Catherine%Marichez%xref no email%1,      Vincent%Dalibard%xref no email%1,      Sandrine%Vanderziepe%xref no email%1,      Laureline%Bourgeois%xref no email%1,      Ana\u00efs%Gaul%xref no email%1,      Aur\u00e9lie%Jospin%xref no email%1,      Nataliia%Stepina%xref no email%1,      B\u00e9n\u00e9dicte%Pradines%xref no email%1,      Antoine%Tournoys%xref no email%1,      Thierry%Brousseau%xref no email%1,      Martine%R\u00e9my%xref no email%1,      Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,             Hippolyte%Monnier%NULL%1,             Ines%Saab%NULL%1,             Mickael%Tordjman%NULL%1,             Hendy%Abdoul%NULL%1,             Laure%Fournier%NULL%1,             Olivier%Sanchez%NULL%1,             Christine%Lorut%NULL%1,             Guillaume%Chassagnon%NULL%1,             Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,             Elena M.%Bertinato%NULL%1,             Simone%Birocchi%NULL%1,             Carolina%Brizio%NULL%1,             Daniele%Malavolta%NULL%1,             Marco%Manzoni%NULL%1,             Gesualdo%Muscarella%NULL%1,             Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1169,7 +1308,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1195,10 +1334,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1227,7 +1366,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1256,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1285,7 +1424,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1314,7 +1453,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1340,10 +1479,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1372,7 +1511,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1401,7 +1540,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1430,7 +1569,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1459,7 +1598,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1488,7 +1627,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1517,7 +1656,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="259">
   <si>
     <t>Doi</t>
   </si>
@@ -941,6 +941,48 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,             Elena M.%Bertinato%NULL%1,             Simone%Birocchi%NULL%1,             Carolina%Brizio%NULL%1,             Daniele%Malavolta%NULL%1,             Marco%Manzoni%NULL%1,             Gesualdo%Muscarella%NULL%1,             Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,              Xavier%Delabranche%NULL%3,              Xavier%Delabranche%NULL%0,              François%Severac%NULL%3,              François%Severac%NULL%0,              Julie%Helms%NULL%0,              Julie%Helms%NULL%0,              Coralie%Pauzet%NULL%1,              Olivier%Collange%NULL%1,              Françis%Schneider%NULL%1,              Aissam%Labani%NULL%2,              Aissam%Labani%NULL%0,              Pascal%Bilbault%NULL%1,              Sébastien%Moliere%NULL%2,              Sébastien%Moliere%NULL%0,              Pierre%Leyendecker%NULL%1,              Catherine%Roy%NULL%2,              Catherine%Roy%NULL%0,              Mickaël%Ohana%mickael.ohana@gmail.com%3,              Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,              Julien%Behr%NULL%2,              Julien%Behr%NULL%0,              Paul%Calame%NULL%1,              Sébastien%Aubry%NULL%1,              Eric%Delabrousse%NULL%2,              Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,              Caroline%Bouzad%NULL%2,              Caroline%Bouzad%NULL%0,              Evelyne%Peroux%NULL%1,              Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,              Rebecca S.%Karp Leaf%NULL%1,              Walter H.%Dzik%NULL%1,              Jonathan C.T.%Carlson%NULL%1,              Annemarie E.%Fogerty%NULL%1,              Anem%Waheed%NULL%1,              Katayoon%Goodarzi%NULL%1,              Pavan K.%Bendapudi%NULL%1,              Larissa%Bornikova%NULL%1,              Shruti%Gupta%NULL%1,              David E.%Leaf%NULL%1,              David J.%Kuter%NULL%1,              Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,       Feifei%Yan%xref no email%1,       Zhouming%Deng%xref no email%1,       Sheng%Zhang%xref no email%0,       Lingfei%Xiao%xref no email%1,       Meng%Wu%xref no email%1,       Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,       Xiaokai%Feng%xref no email%1,       Danqing%Zhang%xref no email%1,       Chunguo%Jiang%xref no email%1,       Heng%Mei%xref no email%1,       Jing%Wang%xref no email%1,       Cuihong%Zhang%xref no email%1,       Hong%Li%xref no email%1,       Xiaoling%Xia%xref no email%1,       Shuangshuang%Kong%xref no email%1,       Jia%Liao%xref no email%1,       Huijun%Jia%xref no email%1,       Xueqin%Pang%xref no email%1,       Yue%Song%xref no email%1,       Ying%Tian%xref no email%1,       Bin%Wang%xref no email%1,       Chun%Wu%xref no email%1,       Hongliang%Yuan%xref no email%1,       Yongxing%Zhang%xref no email%1,       Yuman%Li%xref no email%1,       Wei%Sun%xref no email%1,       Yanting%Zhang%xref no email%1,       Shuangshuang%Zhu%xref no email%1,       Shuyuan%Wang%xref no email%1,       Yuji%Xie%xref no email%1,       Shuping%Ge%xref no email%1,       Liming%Zhang%xref no email%1,       Yu%Hu%xref no email%0,       Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,              Maxime%Leclerc%NULL%1,              Camille%Chochois%NULL%1,              Jean‐Michel%Monsallier%NULL%1,              Michel%Ramakers%NULL%1,              Malika%Auvray%NULL%1,              Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,              Charles%Tacquard%NULL%1,              François%Severac%NULL%0,              Ian%Leonard-Lorant%NULL%1,              Mickaël%Ohana%NULL%0,              Xavier%Delabranche%NULL%0,              Hamid%Merdji%NULL%1,              Raphaël%Clere-Jehl%NULL%1,              Malika%Schenck%NULL%1,              Florence%Fagot Gandet%NULL%1,              Samira%Fafi-Kremer%NULL%0,              Vincent%Castelain%NULL%1,              Francis%Schneider%NULL%0,              Lélia%Grunebaum%NULL%1,              Eduardo%Anglés-Cano%NULL%1,              Laurent%Sattler%NULL%1,              Paul-Michel%Mertes%NULL%0,              Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,              E.%Cervilla-Muñoz%NULL%1,              L.%Ordieres-Ortega%NULL%1,              A.%Parra-Virto%NULL%1,              M.%Toledano-Macías%NULL%1,              N.%Toledo-Samaniego%NULL%1,              A.%García-García%NULL%1,              I.%García-Fernández-Bravo%NULL%1,              Z.%Ji%NULL%1,              J.%de-Miguel-Diez%NULL%1,              L.A.%Álvarez-Sala-Walther%NULL%1,              J.%del-Toro-Cervera%NULL%1,              F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,              Shuo%Chen%NULL%1,              Xiunan%Li%NULL%1,              Shi%Liu%NULL%1,              Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,              Michiel%Coppens%NULL%1,              Thijs F.%van Haaps%NULL%1,              Merijn%Foppen%NULL%1,              Alexander P.%Vlaar%NULL%1,              Marcella C.A.%Müller%NULL%1,              Catherine C.S.%Bouman%NULL%1,              Ludo F.M.%Beenen%NULL%1,              Ruud S.%Kootte%NULL%1,              Jarom%Heijmans%NULL%1,              Loek P.%Smits%NULL%1,              Peter I.%Bonta%NULL%1,              Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,       Julien%Goutay%xref no email%1,       Morgan%Caplan%xref no email%1,       Erika%Parmentier%xref no email%1,       Thibault%Duburcq%xref no email%1,       Fanny%Lassalle%xref no email%1,       Emmanuelle%Jeanpierre%xref no email%1,       Antoine%Rauch%xref no email%1,       Julien%Labreuche%xref no email%1,       Sophie%Susen%xref no email%1,       Nicolas%Cousin%xref no email%1,       Arthur%Durand%xref no email%1,       Ahmed%El Kalioubie%xref no email%1,       Rapha\u00ebl%Favory%xref no email%1,       Patrick%Girardie%xref no email%1,       Marion%Houard%xref no email%1,       Emmanuelle%Jaillette%xref no email%1,       Merc\u00e9%Jourdain%xref no email%1,       Geoffrey%Ledoux%xref no email%1,       Daniel%Mathieu%xref no email%1,       Anne-Sophie%Moreau%xref no email%1,       Christopher%Niles%xref no email%1,       Saad%Nseir%xref no email%1,       Thierry%Onimus%xref no email%1,       S\u00e9bastien%Pr\u00e9au%xref no email%1,       Laurent%Robriquet%xref no email%1,       Anahita%Rouz\u00e9%xref no email%1,       Arthur%Simonnet%xref no email%1,       Sophie%Six%xref no email%1,       Aur\u00e9lia%Toussaint%xref no email%1,       Annabelle%Dupont%xref no email%1,       Anne%Bauters%xref no email%1,       Christophe%Zawadzki%xref no email%1,       Camille%Paris%xref no email%1,       Nathalie%Trillot%xref no email%1,       B\u00e9n\u00e9dicte%Wibaut%xref no email%1,       Audrey%Hochart%xref no email%1,       Catherine%Marichez%xref no email%1,       Vincent%Dalibard%xref no email%1,       Sandrine%Vanderziepe%xref no email%1,       Laureline%Bourgeois%xref no email%1,       Ana\u00efs%Gaul%xref no email%1,       Aur\u00e9lie%Jospin%xref no email%1,       Nataliia%Stepina%xref no email%1,       B\u00e9n\u00e9dicte%Pradines%xref no email%1,       Antoine%Tournoys%xref no email%1,       Thierry%Brousseau%xref no email%1,       Martine%R\u00e9my%xref no email%1,       Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,              Hippolyte%Monnier%NULL%1,              Ines%Saab%NULL%1,              Mickael%Tordjman%NULL%1,              Hendy%Abdoul%NULL%1,              Laure%Fournier%NULL%1,              Olivier%Sanchez%NULL%1,              Christine%Lorut%NULL%1,              Guillaume%Chassagnon%NULL%1,              Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,              Elena M.%Bertinato%NULL%1,              Simone%Birocchi%NULL%1,              Carolina%Brizio%NULL%1,              Daniele%Malavolta%NULL%1,              Marco%Manzoni%NULL%1,              Gesualdo%Muscarella%NULL%1,              Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1321,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1308,7 +1350,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1337,7 +1379,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1366,7 +1408,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1395,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1424,7 +1466,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1453,7 +1495,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1482,7 +1524,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1511,7 +1553,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1540,7 +1582,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1569,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1598,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1627,7 +1669,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1656,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="273">
   <si>
     <t>Doi</t>
   </si>
@@ -983,6 +983,48 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,              Elena M.%Bertinato%NULL%1,              Simone%Birocchi%NULL%1,              Carolina%Brizio%NULL%1,              Daniele%Malavolta%NULL%1,              Marco%Manzoni%NULL%1,              Gesualdo%Muscarella%NULL%1,              Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,               Xavier%Delabranche%NULL%3,               Xavier%Delabranche%NULL%0,               François%Severac%NULL%3,               François%Severac%NULL%0,               Julie%Helms%NULL%0,               Julie%Helms%NULL%0,               Coralie%Pauzet%NULL%1,               Olivier%Collange%NULL%1,               Françis%Schneider%NULL%1,               Aissam%Labani%NULL%2,               Aissam%Labani%NULL%0,               Pascal%Bilbault%NULL%1,               Sébastien%Moliere%NULL%2,               Sébastien%Moliere%NULL%0,               Pierre%Leyendecker%NULL%1,               Catherine%Roy%NULL%2,               Catherine%Roy%NULL%0,               Mickaël%Ohana%mickael.ohana@gmail.com%3,               Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,               Julien%Behr%NULL%2,               Julien%Behr%NULL%0,               Paul%Calame%NULL%1,               Sébastien%Aubry%NULL%1,               Eric%Delabrousse%NULL%2,               Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,               Caroline%Bouzad%NULL%2,               Caroline%Bouzad%NULL%0,               Evelyne%Peroux%NULL%1,               Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,               Rebecca S.%Karp Leaf%NULL%1,               Walter H.%Dzik%NULL%1,               Jonathan C.T.%Carlson%NULL%1,               Annemarie E.%Fogerty%NULL%1,               Anem%Waheed%NULL%1,               Katayoon%Goodarzi%NULL%1,               Pavan K.%Bendapudi%NULL%1,               Larissa%Bornikova%NULL%1,               Shruti%Gupta%NULL%1,               David E.%Leaf%NULL%1,               David J.%Kuter%NULL%1,               Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,        Feifei%Yan%xref no email%1,        Zhouming%Deng%xref no email%1,        Sheng%Zhang%xref no email%0,        Lingfei%Xiao%xref no email%1,        Meng%Wu%xref no email%1,        Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%2,        Xiaokai%Feng%xref no email%1,        Danqing%Zhang%xref no email%1,        Chunguo%Jiang%xref no email%1,        Heng%Mei%xref no email%1,        Jing%Wang%xref no email%1,        Cuihong%Zhang%xref no email%1,        Hong%Li%xref no email%1,        Xiaoling%Xia%xref no email%1,        Shuangshuang%Kong%xref no email%1,        Jia%Liao%xref no email%1,        Huijun%Jia%xref no email%1,        Xueqin%Pang%xref no email%1,        Yue%Song%xref no email%1,        Ying%Tian%xref no email%1,        Bin%Wang%xref no email%1,        Chun%Wu%xref no email%1,        Hongliang%Yuan%xref no email%1,        Yongxing%Zhang%xref no email%1,        Yuman%Li%xref no email%1,        Wei%Sun%xref no email%1,        Yanting%Zhang%xref no email%1,        Shuangshuang%Zhu%xref no email%1,        Shuyuan%Wang%xref no email%1,        Yuji%Xie%xref no email%1,        Shuping%Ge%xref no email%1,        Liming%Zhang%xref no email%1,        Yu%Hu%xref no email%0,        Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,               Maxime%Leclerc%NULL%1,               Camille%Chochois%NULL%1,               Jean‐Michel%Monsallier%NULL%1,               Michel%Ramakers%NULL%1,               Malika%Auvray%NULL%1,               Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,               Charles%Tacquard%NULL%1,               François%Severac%NULL%0,               Ian%Leonard-Lorant%NULL%1,               Mickaël%Ohana%NULL%0,               Xavier%Delabranche%NULL%0,               Hamid%Merdji%NULL%1,               Raphaël%Clere-Jehl%NULL%1,               Malika%Schenck%NULL%1,               Florence%Fagot Gandet%NULL%1,               Samira%Fafi-Kremer%NULL%0,               Vincent%Castelain%NULL%1,               Francis%Schneider%NULL%0,               Lélia%Grunebaum%NULL%1,               Eduardo%Anglés-Cano%NULL%1,               Laurent%Sattler%NULL%1,               Paul-Michel%Mertes%NULL%0,               Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,               E.%Cervilla-Muñoz%NULL%1,               L.%Ordieres-Ortega%NULL%1,               A.%Parra-Virto%NULL%1,               M.%Toledano-Macías%NULL%1,               N.%Toledo-Samaniego%NULL%1,               A.%García-García%NULL%1,               I.%García-Fernández-Bravo%NULL%1,               Z.%Ji%NULL%1,               J.%de-Miguel-Diez%NULL%1,               L.A.%Álvarez-Sala-Walther%NULL%1,               J.%del-Toro-Cervera%NULL%1,               F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,               Shuo%Chen%NULL%1,               Xiunan%Li%NULL%1,               Shi%Liu%NULL%1,               Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,               Michiel%Coppens%NULL%1,               Thijs F.%van Haaps%NULL%1,               Merijn%Foppen%NULL%1,               Alexander P.%Vlaar%NULL%1,               Marcella C.A.%Müller%NULL%1,               Catherine C.S.%Bouman%NULL%1,               Ludo F.M.%Beenen%NULL%1,               Ruud S.%Kootte%NULL%1,               Jarom%Heijmans%NULL%1,               Loek P.%Smits%NULL%1,               Peter I.%Bonta%NULL%1,               Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,        Julien%Goutay%xref no email%1,        Morgan%Caplan%xref no email%1,        Erika%Parmentier%xref no email%1,        Thibault%Duburcq%xref no email%1,        Fanny%Lassalle%xref no email%1,        Emmanuelle%Jeanpierre%xref no email%1,        Antoine%Rauch%xref no email%1,        Julien%Labreuche%xref no email%1,        Sophie%Susen%xref no email%1,        Nicolas%Cousin%xref no email%1,        Arthur%Durand%xref no email%1,        Ahmed%El Kalioubie%xref no email%1,        Rapha\u00ebl%Favory%xref no email%1,        Patrick%Girardie%xref no email%1,        Marion%Houard%xref no email%1,        Emmanuelle%Jaillette%xref no email%1,        Merc\u00e9%Jourdain%xref no email%1,        Geoffrey%Ledoux%xref no email%1,        Daniel%Mathieu%xref no email%1,        Anne-Sophie%Moreau%xref no email%1,        Christopher%Niles%xref no email%1,        Saad%Nseir%xref no email%1,        Thierry%Onimus%xref no email%1,        S\u00e9bastien%Pr\u00e9au%xref no email%1,        Laurent%Robriquet%xref no email%1,        Anahita%Rouz\u00e9%xref no email%1,        Arthur%Simonnet%xref no email%1,        Sophie%Six%xref no email%1,        Aur\u00e9lia%Toussaint%xref no email%1,        Annabelle%Dupont%xref no email%1,        Anne%Bauters%xref no email%1,        Christophe%Zawadzki%xref no email%1,        Camille%Paris%xref no email%1,        Nathalie%Trillot%xref no email%1,        B\u00e9n\u00e9dicte%Wibaut%xref no email%1,        Audrey%Hochart%xref no email%1,        Catherine%Marichez%xref no email%1,        Vincent%Dalibard%xref no email%1,        Sandrine%Vanderziepe%xref no email%1,        Laureline%Bourgeois%xref no email%1,        Ana\u00efs%Gaul%xref no email%1,        Aur\u00e9lie%Jospin%xref no email%1,        Nataliia%Stepina%xref no email%1,        B\u00e9n\u00e9dicte%Pradines%xref no email%1,        Antoine%Tournoys%xref no email%1,        Thierry%Brousseau%xref no email%1,        Martine%R\u00e9my%xref no email%1,        Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,               Hippolyte%Monnier%NULL%1,               Ines%Saab%NULL%1,               Mickael%Tordjman%NULL%1,               Hendy%Abdoul%NULL%1,               Laure%Fournier%NULL%1,               Olivier%Sanchez%NULL%1,               Christine%Lorut%NULL%1,               Guillaume%Chassagnon%NULL%1,               Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,               Elena M.%Bertinato%NULL%1,               Simone%Birocchi%NULL%1,               Carolina%Brizio%NULL%1,               Daniele%Malavolta%NULL%1,               Marco%Manzoni%NULL%1,               Gesualdo%Muscarella%NULL%1,               Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1350,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1379,7 +1421,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1408,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1437,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1466,7 +1508,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1495,7 +1537,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1524,7 +1566,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1553,7 +1595,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1582,7 +1624,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1611,7 +1653,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1640,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1669,7 +1711,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1698,7 +1740,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="301">
   <si>
     <t>Doi</t>
   </si>
@@ -1025,6 +1025,90 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,               Elena M.%Bertinato%NULL%1,               Simone%Birocchi%NULL%1,               Carolina%Brizio%NULL%1,               Daniele%Malavolta%NULL%1,               Marco%Manzoni%NULL%1,               Gesualdo%Muscarella%NULL%1,               Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                Xavier%Delabranche%NULL%3,                Xavier%Delabranche%NULL%0,                François%Severac%NULL%3,                François%Severac%NULL%0,                Julie%Helms%NULL%0,                Julie%Helms%NULL%0,                Coralie%Pauzet%NULL%1,                Olivier%Collange%NULL%1,                Françis%Schneider%NULL%1,                Aissam%Labani%NULL%2,                Aissam%Labani%NULL%0,                Pascal%Bilbault%NULL%1,                Sébastien%Moliere%NULL%2,                Sébastien%Moliere%NULL%0,                Pierre%Leyendecker%NULL%1,                Catherine%Roy%NULL%2,                Catherine%Roy%NULL%0,                Mickaël%Ohana%mickael.ohana@gmail.com%3,                Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                Julien%Behr%NULL%2,                Julien%Behr%NULL%0,                Paul%Calame%NULL%1,                Sébastien%Aubry%NULL%1,                Eric%Delabrousse%NULL%2,                Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                Caroline%Bouzad%NULL%2,                Caroline%Bouzad%NULL%0,                Evelyne%Peroux%NULL%1,                Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                Rebecca S.%Karp Leaf%NULL%1,                Walter H.%Dzik%NULL%1,                Jonathan C.T.%Carlson%NULL%1,                Annemarie E.%Fogerty%NULL%1,                Anem%Waheed%NULL%1,                Katayoon%Goodarzi%NULL%1,                Pavan K.%Bendapudi%NULL%1,                Larissa%Bornikova%NULL%1,                Shruti%Gupta%NULL%1,                David E.%Leaf%NULL%1,                David J.%Kuter%NULL%1,                Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,         Feifei%Yan%xref no email%1,         Zhouming%Deng%xref no email%1,         Sheng%Zhang%xref no email%0,         Lingfei%Xiao%xref no email%1,         Meng%Wu%xref no email%1,         Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,         Xiaokai%Feng%xref no email%1,         Danqing%Zhang%xref no email%1,         Chunguo%Jiang%xref no email%1,         Heng%Mei%xref no email%1,         Jing%Wang%xref no email%1,         Cuihong%Zhang%xref no email%1,         Hong%Li%xref no email%1,         Xiaoling%Xia%xref no email%1,         Shuangshuang%Kong%xref no email%1,         Jia%Liao%xref no email%1,         Huijun%Jia%xref no email%1,         Xueqin%Pang%xref no email%1,         Yue%Song%xref no email%1,         Ying%Tian%xref no email%1,         Bin%Wang%xref no email%1,         Chun%Wu%xref no email%1,         Hongliang%Yuan%xref no email%1,         Yongxing%Zhang%xref no email%1,         Yuman%Li%xref no email%1,         Wei%Sun%xref no email%1,         Yanting%Zhang%xref no email%1,         Shuangshuang%Zhu%xref no email%1,         Shuyuan%Wang%xref no email%1,         Yuji%Xie%xref no email%1,         Shuping%Ge%xref no email%1,         Liming%Zhang%xref no email%1,         Yu%Hu%xref no email%0,         Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                Maxime%Leclerc%NULL%1,                Camille%Chochois%NULL%1,                Jean‐Michel%Monsallier%NULL%1,                Michel%Ramakers%NULL%1,                Malika%Auvray%NULL%1,                Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                Charles%Tacquard%NULL%1,                François%Severac%NULL%0,                Ian%Leonard-Lorant%NULL%1,                Mickaël%Ohana%NULL%0,                Xavier%Delabranche%NULL%0,                Hamid%Merdji%NULL%1,                Raphaël%Clere-Jehl%NULL%1,                Malika%Schenck%NULL%1,                Florence%Fagot Gandet%NULL%1,                Samira%Fafi-Kremer%NULL%0,                Vincent%Castelain%NULL%1,                Francis%Schneider%NULL%0,                Lélia%Grunebaum%NULL%1,                Eduardo%Anglés-Cano%NULL%1,                Laurent%Sattler%NULL%1,                Paul-Michel%Mertes%NULL%0,                Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                E.%Cervilla-Muñoz%NULL%1,                L.%Ordieres-Ortega%NULL%1,                A.%Parra-Virto%NULL%1,                M.%Toledano-Macías%NULL%1,                N.%Toledo-Samaniego%NULL%1,                A.%García-García%NULL%1,                I.%García-Fernández-Bravo%NULL%1,                Z.%Ji%NULL%1,                J.%de-Miguel-Diez%NULL%1,                L.A.%Álvarez-Sala-Walther%NULL%1,                J.%del-Toro-Cervera%NULL%1,                F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                Shuo%Chen%NULL%1,                Xiunan%Li%NULL%1,                Shi%Liu%NULL%1,                Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                Michiel%Coppens%NULL%1,                Thijs F.%van Haaps%NULL%1,                Merijn%Foppen%NULL%1,                Alexander P.%Vlaar%NULL%1,                Marcella C.A.%Müller%NULL%1,                Catherine C.S.%Bouman%NULL%1,                Ludo F.M.%Beenen%NULL%1,                Ruud S.%Kootte%NULL%1,                Jarom%Heijmans%NULL%1,                Loek P.%Smits%NULL%1,                Peter I.%Bonta%NULL%1,                Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,         Julien%Goutay%xref no email%1,         Morgan%Caplan%xref no email%1,         Erika%Parmentier%xref no email%1,         Thibault%Duburcq%xref no email%1,         Fanny%Lassalle%xref no email%1,         Emmanuelle%Jeanpierre%xref no email%1,         Antoine%Rauch%xref no email%1,         Julien%Labreuche%xref no email%1,         Sophie%Susen%xref no email%1,         Nicolas%Cousin%xref no email%1,         Arthur%Durand%xref no email%1,         Ahmed%El Kalioubie%xref no email%1,         Rapha\u00ebl%Favory%xref no email%1,         Patrick%Girardie%xref no email%1,         Marion%Houard%xref no email%1,         Emmanuelle%Jaillette%xref no email%1,         Merc\u00e9%Jourdain%xref no email%1,         Geoffrey%Ledoux%xref no email%1,         Daniel%Mathieu%xref no email%1,         Anne-Sophie%Moreau%xref no email%1,         Christopher%Niles%xref no email%1,         Saad%Nseir%xref no email%1,         Thierry%Onimus%xref no email%1,         S\u00e9bastien%Pr\u00e9au%xref no email%1,         Laurent%Robriquet%xref no email%1,         Anahita%Rouz\u00e9%xref no email%1,         Arthur%Simonnet%xref no email%1,         Sophie%Six%xref no email%1,         Aur\u00e9lia%Toussaint%xref no email%1,         Annabelle%Dupont%xref no email%1,         Anne%Bauters%xref no email%1,         Christophe%Zawadzki%xref no email%1,         Camille%Paris%xref no email%1,         Nathalie%Trillot%xref no email%1,         B\u00e9n\u00e9dicte%Wibaut%xref no email%1,         Audrey%Hochart%xref no email%1,         Catherine%Marichez%xref no email%1,         Vincent%Dalibard%xref no email%1,         Sandrine%Vanderziepe%xref no email%1,         Laureline%Bourgeois%xref no email%1,         Ana\u00efs%Gaul%xref no email%1,         Aur\u00e9lie%Jospin%xref no email%1,         Nataliia%Stepina%xref no email%1,         B\u00e9n\u00e9dicte%Pradines%xref no email%1,         Antoine%Tournoys%xref no email%1,         Thierry%Brousseau%xref no email%1,         Martine%R\u00e9my%xref no email%1,         Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                Hippolyte%Monnier%NULL%1,                Ines%Saab%NULL%1,                Mickael%Tordjman%NULL%1,                Hendy%Abdoul%NULL%1,                Laure%Fournier%NULL%1,                Olivier%Sanchez%NULL%1,                Christine%Lorut%NULL%1,                Guillaume%Chassagnon%NULL%1,                Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                Elena M.%Bertinato%NULL%1,                Simone%Birocchi%NULL%1,                Carolina%Brizio%NULL%1,                Daniele%Malavolta%NULL%1,                Marco%Manzoni%NULL%1,                Gesualdo%Muscarella%NULL%1,                Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                 Xavier%Delabranche%NULL%3,                 Xavier%Delabranche%NULL%0,                 François%Severac%NULL%3,                 François%Severac%NULL%0,                 Julie%Helms%NULL%0,                 Julie%Helms%NULL%0,                 Coralie%Pauzet%NULL%1,                 Olivier%Collange%NULL%1,                 Françis%Schneider%NULL%1,                 Aissam%Labani%NULL%2,                 Aissam%Labani%NULL%0,                 Pascal%Bilbault%NULL%1,                 Sébastien%Moliere%NULL%2,                 Sébastien%Moliere%NULL%0,                 Pierre%Leyendecker%NULL%1,                 Catherine%Roy%NULL%2,                 Catherine%Roy%NULL%0,                 Mickaël%Ohana%mickael.ohana@gmail.com%3,                 Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                 Julien%Behr%NULL%2,                 Julien%Behr%NULL%0,                 Paul%Calame%NULL%1,                 Sébastien%Aubry%NULL%1,                 Eric%Delabrousse%NULL%2,                 Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                 Caroline%Bouzad%NULL%2,                 Caroline%Bouzad%NULL%0,                 Evelyne%Peroux%NULL%1,                 Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                 Rebecca S.%Karp Leaf%NULL%1,                 Walter H.%Dzik%NULL%1,                 Jonathan C.T.%Carlson%NULL%1,                 Annemarie E.%Fogerty%NULL%1,                 Anem%Waheed%NULL%1,                 Katayoon%Goodarzi%NULL%1,                 Pavan K.%Bendapudi%NULL%1,                 Larissa%Bornikova%NULL%1,                 Shruti%Gupta%NULL%1,                 David E.%Leaf%NULL%1,                 David J.%Kuter%NULL%1,                 Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,          Feifei%Yan%xref no email%1,          Zhouming%Deng%xref no email%1,          Sheng%Zhang%xref no email%0,          Lingfei%Xiao%xref no email%1,          Meng%Wu%xref no email%1,          Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,          Xiaokai%Feng%xref no email%1,          Danqing%Zhang%xref no email%1,          Chunguo%Jiang%xref no email%1,          Heng%Mei%xref no email%1,          Jing%Wang%xref no email%1,          Cuihong%Zhang%xref no email%1,          Hong%Li%xref no email%1,          Xiaoling%Xia%xref no email%1,          Shuangshuang%Kong%xref no email%1,          Jia%Liao%xref no email%1,          Huijun%Jia%xref no email%1,          Xueqin%Pang%xref no email%1,          Yue%Song%xref no email%1,          Ying%Tian%xref no email%1,          Bin%Wang%xref no email%1,          Chun%Wu%xref no email%1,          Hongliang%Yuan%xref no email%1,          Yongxing%Zhang%xref no email%1,          Yuman%Li%xref no email%1,          Wei%Sun%xref no email%1,          Yanting%Zhang%xref no email%1,          Shuangshuang%Zhu%xref no email%1,          Shuyuan%Wang%xref no email%1,          Yuji%Xie%xref no email%1,          Shuping%Ge%xref no email%1,          Liming%Zhang%xref no email%1,          Yu%Hu%xref no email%0,          Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                 Maxime%Leclerc%NULL%1,                 Camille%Chochois%NULL%1,                 Jean‐Michel%Monsallier%NULL%1,                 Michel%Ramakers%NULL%1,                 Malika%Auvray%NULL%1,                 Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                 Charles%Tacquard%NULL%1,                 François%Severac%NULL%0,                 Ian%Leonard-Lorant%NULL%1,                 Mickaël%Ohana%NULL%0,                 Xavier%Delabranche%NULL%0,                 Hamid%Merdji%NULL%1,                 Raphaël%Clere-Jehl%NULL%1,                 Malika%Schenck%NULL%1,                 Florence%Fagot Gandet%NULL%1,                 Samira%Fafi-Kremer%NULL%0,                 Vincent%Castelain%NULL%1,                 Francis%Schneider%NULL%0,                 Lélia%Grunebaum%NULL%1,                 Eduardo%Anglés-Cano%NULL%1,                 Laurent%Sattler%NULL%1,                 Paul-Michel%Mertes%NULL%0,                 Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                 E.%Cervilla-Muñoz%NULL%1,                 L.%Ordieres-Ortega%NULL%1,                 A.%Parra-Virto%NULL%1,                 M.%Toledano-Macías%NULL%1,                 N.%Toledo-Samaniego%NULL%1,                 A.%García-García%NULL%1,                 I.%García-Fernández-Bravo%NULL%1,                 Z.%Ji%NULL%1,                 J.%de-Miguel-Diez%NULL%1,                 L.A.%Álvarez-Sala-Walther%NULL%1,                 J.%del-Toro-Cervera%NULL%1,                 F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                 Shuo%Chen%NULL%1,                 Xiunan%Li%NULL%1,                 Shi%Liu%NULL%1,                 Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                 Michiel%Coppens%NULL%1,                 Thijs F.%van Haaps%NULL%1,                 Merijn%Foppen%NULL%1,                 Alexander P.%Vlaar%NULL%1,                 Marcella C.A.%Müller%NULL%1,                 Catherine C.S.%Bouman%NULL%1,                 Ludo F.M.%Beenen%NULL%1,                 Ruud S.%Kootte%NULL%1,                 Jarom%Heijmans%NULL%1,                 Loek P.%Smits%NULL%1,                 Peter I.%Bonta%NULL%1,                 Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,          Julien%Goutay%xref no email%1,          Morgan%Caplan%xref no email%1,          Erika%Parmentier%xref no email%1,          Thibault%Duburcq%xref no email%1,          Fanny%Lassalle%xref no email%1,          Emmanuelle%Jeanpierre%xref no email%1,          Antoine%Rauch%xref no email%1,          Julien%Labreuche%xref no email%1,          Sophie%Susen%xref no email%1,          Nicolas%Cousin%xref no email%1,          Arthur%Durand%xref no email%1,          Ahmed%El Kalioubie%xref no email%1,          Rapha\u00ebl%Favory%xref no email%1,          Patrick%Girardie%xref no email%1,          Marion%Houard%xref no email%1,          Emmanuelle%Jaillette%xref no email%1,          Merc\u00e9%Jourdain%xref no email%1,          Geoffrey%Ledoux%xref no email%1,          Daniel%Mathieu%xref no email%1,          Anne-Sophie%Moreau%xref no email%1,          Christopher%Niles%xref no email%1,          Saad%Nseir%xref no email%1,          Thierry%Onimus%xref no email%1,          S\u00e9bastien%Pr\u00e9au%xref no email%1,          Laurent%Robriquet%xref no email%1,          Anahita%Rouz\u00e9%xref no email%1,          Arthur%Simonnet%xref no email%1,          Sophie%Six%xref no email%1,          Aur\u00e9lia%Toussaint%xref no email%1,          Annabelle%Dupont%xref no email%1,          Anne%Bauters%xref no email%1,          Christophe%Zawadzki%xref no email%1,          Camille%Paris%xref no email%1,          Nathalie%Trillot%xref no email%1,          B\u00e9n\u00e9dicte%Wibaut%xref no email%1,          Audrey%Hochart%xref no email%1,          Catherine%Marichez%xref no email%1,          Vincent%Dalibard%xref no email%1,          Sandrine%Vanderziepe%xref no email%1,          Laureline%Bourgeois%xref no email%1,          Ana\u00efs%Gaul%xref no email%1,          Aur\u00e9lie%Jospin%xref no email%1,          Nataliia%Stepina%xref no email%1,          B\u00e9n\u00e9dicte%Pradines%xref no email%1,          Antoine%Tournoys%xref no email%1,          Thierry%Brousseau%xref no email%1,          Martine%R\u00e9my%xref no email%1,          Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                 Hippolyte%Monnier%NULL%1,                 Ines%Saab%NULL%1,                 Mickael%Tordjman%NULL%1,                 Hendy%Abdoul%NULL%1,                 Laure%Fournier%NULL%1,                 Olivier%Sanchez%NULL%1,                 Christine%Lorut%NULL%1,                 Guillaume%Chassagnon%NULL%1,                 Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                 Elena M.%Bertinato%NULL%1,                 Simone%Birocchi%NULL%1,                 Carolina%Brizio%NULL%1,                 Daniele%Malavolta%NULL%1,                 Marco%Manzoni%NULL%1,                 Gesualdo%Muscarella%NULL%1,                 Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1447,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1392,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1421,7 +1505,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1450,7 +1534,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1479,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1508,7 +1592,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1537,7 +1621,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1566,7 +1650,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1595,7 +1679,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1624,7 +1708,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1653,7 +1737,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1682,7 +1766,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1711,7 +1795,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1740,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="315">
   <si>
     <t>Doi</t>
   </si>
@@ -1109,6 +1109,48 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                 Elena M.%Bertinato%NULL%1,                 Simone%Birocchi%NULL%1,                 Carolina%Brizio%NULL%1,                 Daniele%Malavolta%NULL%1,                 Marco%Manzoni%NULL%1,                 Gesualdo%Muscarella%NULL%1,                 Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                  Xavier%Delabranche%NULL%3,                  Xavier%Delabranche%NULL%0,                  François%Severac%NULL%3,                  François%Severac%NULL%0,                  Julie%Helms%NULL%0,                  Julie%Helms%NULL%0,                  Coralie%Pauzet%NULL%1,                  Olivier%Collange%NULL%1,                  Françis%Schneider%NULL%1,                  Aissam%Labani%NULL%2,                  Aissam%Labani%NULL%0,                  Pascal%Bilbault%NULL%1,                  Sébastien%Moliere%NULL%2,                  Sébastien%Moliere%NULL%0,                  Pierre%Leyendecker%NULL%1,                  Catherine%Roy%NULL%2,                  Catherine%Roy%NULL%0,                  Mickaël%Ohana%mickael.ohana@gmail.com%3,                  Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                  Julien%Behr%NULL%2,                  Julien%Behr%NULL%0,                  Paul%Calame%NULL%1,                  Sébastien%Aubry%NULL%1,                  Eric%Delabrousse%NULL%2,                  Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                  Caroline%Bouzad%NULL%2,                  Caroline%Bouzad%NULL%0,                  Evelyne%Peroux%NULL%1,                  Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                  Rebecca S.%Karp Leaf%NULL%1,                  Walter H.%Dzik%NULL%1,                  Jonathan C.T.%Carlson%NULL%1,                  Annemarie E.%Fogerty%NULL%1,                  Anem%Waheed%NULL%1,                  Katayoon%Goodarzi%NULL%1,                  Pavan K.%Bendapudi%NULL%1,                  Larissa%Bornikova%NULL%1,                  Shruti%Gupta%NULL%1,                  David E.%Leaf%NULL%1,                  David J.%Kuter%NULL%1,                  Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,           Feifei%Yan%xref no email%1,           Zhouming%Deng%xref no email%1,           Sheng%Zhang%xref no email%0,           Lingfei%Xiao%xref no email%1,           Meng%Wu%xref no email%1,           Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%4,           Xiaokai%Feng%xref no email%1,           Danqing%Zhang%xref no email%1,           Chunguo%Jiang%xref no email%1,           Heng%Mei%xref no email%1,           Jing%Wang%xref no email%1,           Cuihong%Zhang%xref no email%1,           Hong%Li%xref no email%1,           Xiaoling%Xia%xref no email%1,           Shuangshuang%Kong%xref no email%1,           Jia%Liao%xref no email%1,           Huijun%Jia%xref no email%1,           Xueqin%Pang%xref no email%1,           Yue%Song%xref no email%1,           Ying%Tian%xref no email%1,           Bin%Wang%xref no email%1,           Chun%Wu%xref no email%1,           Hongliang%Yuan%xref no email%1,           Yongxing%Zhang%xref no email%1,           Yuman%Li%xref no email%1,           Wei%Sun%xref no email%1,           Yanting%Zhang%xref no email%1,           Shuangshuang%Zhu%xref no email%1,           Shuyuan%Wang%xref no email%1,           Yuji%Xie%xref no email%1,           Shuping%Ge%xref no email%1,           Liming%Zhang%xref no email%1,           Yu%Hu%xref no email%0,           Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                  Maxime%Leclerc%NULL%1,                  Camille%Chochois%NULL%1,                  Jean‐Michel%Monsallier%NULL%1,                  Michel%Ramakers%NULL%1,                  Malika%Auvray%NULL%1,                  Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                  Charles%Tacquard%NULL%1,                  François%Severac%NULL%0,                  Ian%Leonard-Lorant%NULL%1,                  Mickaël%Ohana%NULL%0,                  Xavier%Delabranche%NULL%0,                  Hamid%Merdji%NULL%1,                  Raphaël%Clere-Jehl%NULL%1,                  Malika%Schenck%NULL%1,                  Florence%Fagot Gandet%NULL%1,                  Samira%Fafi-Kremer%NULL%0,                  Vincent%Castelain%NULL%1,                  Francis%Schneider%NULL%0,                  Lélia%Grunebaum%NULL%1,                  Eduardo%Anglés-Cano%NULL%1,                  Laurent%Sattler%NULL%1,                  Paul-Michel%Mertes%NULL%0,                  Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                  E.%Cervilla-Muñoz%NULL%1,                  L.%Ordieres-Ortega%NULL%1,                  A.%Parra-Virto%NULL%1,                  M.%Toledano-Macías%NULL%1,                  N.%Toledo-Samaniego%NULL%1,                  A.%García-García%NULL%1,                  I.%García-Fernández-Bravo%NULL%1,                  Z.%Ji%NULL%1,                  J.%de-Miguel-Diez%NULL%1,                  L.A.%Álvarez-Sala-Walther%NULL%1,                  J.%del-Toro-Cervera%NULL%1,                  F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                  Shuo%Chen%NULL%1,                  Xiunan%Li%NULL%1,                  Shi%Liu%NULL%1,                  Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                  Michiel%Coppens%NULL%1,                  Thijs F.%van Haaps%NULL%1,                  Merijn%Foppen%NULL%1,                  Alexander P.%Vlaar%NULL%1,                  Marcella C.A.%Müller%NULL%1,                  Catherine C.S.%Bouman%NULL%1,                  Ludo F.M.%Beenen%NULL%1,                  Ruud S.%Kootte%NULL%1,                  Jarom%Heijmans%NULL%1,                  Loek P.%Smits%NULL%1,                  Peter I.%Bonta%NULL%1,                  Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,           Julien%Goutay%xref no email%1,           Morgan%Caplan%xref no email%1,           Erika%Parmentier%xref no email%1,           Thibault%Duburcq%xref no email%1,           Fanny%Lassalle%xref no email%1,           Emmanuelle%Jeanpierre%xref no email%1,           Antoine%Rauch%xref no email%1,           Julien%Labreuche%xref no email%1,           Sophie%Susen%xref no email%1,           Nicolas%Cousin%xref no email%1,           Arthur%Durand%xref no email%1,           Ahmed%El Kalioubie%xref no email%1,           Rapha\u00ebl%Favory%xref no email%1,           Patrick%Girardie%xref no email%1,           Marion%Houard%xref no email%1,           Emmanuelle%Jaillette%xref no email%1,           Merc\u00e9%Jourdain%xref no email%1,           Geoffrey%Ledoux%xref no email%1,           Daniel%Mathieu%xref no email%1,           Anne-Sophie%Moreau%xref no email%1,           Christopher%Niles%xref no email%1,           Saad%Nseir%xref no email%1,           Thierry%Onimus%xref no email%1,           S\u00e9bastien%Pr\u00e9au%xref no email%1,           Laurent%Robriquet%xref no email%1,           Anahita%Rouz\u00e9%xref no email%1,           Arthur%Simonnet%xref no email%1,           Sophie%Six%xref no email%1,           Aur\u00e9lia%Toussaint%xref no email%1,           Annabelle%Dupont%xref no email%1,           Anne%Bauters%xref no email%1,           Christophe%Zawadzki%xref no email%1,           Camille%Paris%xref no email%1,           Nathalie%Trillot%xref no email%1,           B\u00e9n\u00e9dicte%Wibaut%xref no email%1,           Audrey%Hochart%xref no email%1,           Catherine%Marichez%xref no email%1,           Vincent%Dalibard%xref no email%1,           Sandrine%Vanderziepe%xref no email%1,           Laureline%Bourgeois%xref no email%1,           Ana\u00efs%Gaul%xref no email%1,           Aur\u00e9lie%Jospin%xref no email%1,           Nataliia%Stepina%xref no email%1,           B\u00e9n\u00e9dicte%Pradines%xref no email%1,           Antoine%Tournoys%xref no email%1,           Thierry%Brousseau%xref no email%1,           Martine%R\u00e9my%xref no email%1,           Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                  Hippolyte%Monnier%NULL%1,                  Ines%Saab%NULL%1,                  Mickael%Tordjman%NULL%1,                  Hendy%Abdoul%NULL%1,                  Laure%Fournier%NULL%1,                  Olivier%Sanchez%NULL%1,                  Christine%Lorut%NULL%1,                  Guillaume%Chassagnon%NULL%1,                  Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                  Elena M.%Bertinato%NULL%1,                  Simone%Birocchi%NULL%1,                  Carolina%Brizio%NULL%1,                  Daniele%Malavolta%NULL%1,                  Marco%Manzoni%NULL%1,                  Gesualdo%Muscarella%NULL%1,                  Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1476,7 +1518,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1505,7 +1547,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1534,7 +1576,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1563,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1592,7 +1634,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1621,7 +1663,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1650,7 +1692,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1679,7 +1721,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1708,7 +1750,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1737,7 +1779,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1766,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1795,7 +1837,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1824,7 +1866,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1151,6 +1151,60 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                  Elena M.%Bertinato%NULL%1,                  Simone%Birocchi%NULL%1,                  Carolina%Brizio%NULL%1,                  Daniele%Malavolta%NULL%1,                  Marco%Manzoni%NULL%1,                  Gesualdo%Muscarella%NULL%1,                  Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                   Xavier%Delabranche%NULL%3,                   Xavier%Delabranche%NULL%0,                   François%Severac%NULL%3,                   François%Severac%NULL%0,                   Julie%Helms%NULL%0,                   Julie%Helms%NULL%0,                   Coralie%Pauzet%NULL%1,                   Olivier%Collange%NULL%1,                   Françis%Schneider%NULL%1,                   Aissam%Labani%NULL%2,                   Aissam%Labani%NULL%0,                   Pascal%Bilbault%NULL%1,                   Sébastien%Moliere%NULL%2,                   Sébastien%Moliere%NULL%0,                   Pierre%Leyendecker%NULL%1,                   Catherine%Roy%NULL%2,                   Catherine%Roy%NULL%0,                   Mickaël%Ohana%mickael.ohana@gmail.com%3,                   Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                   Julien%Behr%NULL%2,                   Julien%Behr%NULL%0,                   Paul%Calame%NULL%1,                   Sébastien%Aubry%NULL%1,                   Eric%Delabrousse%NULL%2,                   Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                   Caroline%Bouzad%NULL%2,                   Caroline%Bouzad%NULL%0,                   Evelyne%Peroux%NULL%1,                   Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                   Rebecca S.%Karp Leaf%NULL%1,                   Walter H.%Dzik%NULL%1,                   Jonathan C.T.%Carlson%NULL%1,                   Annemarie E.%Fogerty%NULL%1,                   Anem%Waheed%NULL%1,                   Katayoon%Goodarzi%NULL%1,                   Pavan K.%Bendapudi%NULL%1,                   Larissa%Bornikova%NULL%1,                   Shruti%Gupta%NULL%1,                   David E.%Leaf%NULL%1,                   David J.%Kuter%NULL%1,                   Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,            Feifei%Yan%xref no email%1,            Zhouming%Deng%xref no email%1,            Sheng%Zhang%xref no email%0,            Lingfei%Xiao%xref no email%1,            Meng%Wu%xref no email%1,            Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%2,            Xiaokai%Feng%xref no email%1,            Danqing%Zhang%xref no email%1,            Chunguo%Jiang%xref no email%1,            Heng%Mei%xref no email%1,            Jing%Wang%xref no email%1,            Cuihong%Zhang%xref no email%1,            Hong%Li%xref no email%1,            Xiaoling%Xia%xref no email%1,            Shuangshuang%Kong%xref no email%1,            Jia%Liao%xref no email%1,            Huijun%Jia%xref no email%1,            Xueqin%Pang%xref no email%1,            Yue%Song%xref no email%1,            Ying%Tian%xref no email%1,            Bin%Wang%xref no email%1,            Chun%Wu%xref no email%1,            Hongliang%Yuan%xref no email%1,            Yongxing%Zhang%xref no email%1,            Yuman%Li%xref no email%1,            Wei%Sun%xref no email%1,            Yanting%Zhang%xref no email%1,            Shuangshuang%Zhu%xref no email%1,            Shuyuan%Wang%xref no email%1,            Yuji%Xie%xref no email%1,            Shuping%Ge%xref no email%1,            Liming%Zhang%xref no email%1,            Yu%Hu%xref no email%0,            Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                   Maxime%Leclerc%NULL%1,                   Camille%Chochois%NULL%1,                   Jean‐Michel%Monsallier%NULL%1,                   Michel%Ramakers%NULL%1,                   Malika%Auvray%NULL%1,                   Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                   Charles%Tacquard%NULL%1,                   François%Severac%NULL%0,                   Ian%Leonard-Lorant%NULL%1,                   Mickaël%Ohana%NULL%0,                   Xavier%Delabranche%NULL%0,                   Hamid%Merdji%NULL%1,                   Raphaël%Clere-Jehl%NULL%1,                   Malika%Schenck%NULL%1,                   Florence%Fagot Gandet%NULL%1,                   Samira%Fafi-Kremer%NULL%0,                   Vincent%Castelain%NULL%1,                   Francis%Schneider%NULL%0,                   Lélia%Grunebaum%NULL%1,                   Eduardo%Anglés-Cano%NULL%1,                   Laurent%Sattler%NULL%1,                   Paul-Michel%Mertes%NULL%0,                   Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                   E.%Cervilla-Muñoz%NULL%1,                   L.%Ordieres-Ortega%NULL%1,                   A.%Parra-Virto%NULL%1,                   M.%Toledano-Macías%NULL%1,                   N.%Toledo-Samaniego%NULL%1,                   A.%García-García%NULL%1,                   I.%García-Fernández-Bravo%NULL%1,                   Z.%Ji%NULL%1,                   J.%de-Miguel-Diez%NULL%1,                   L.A.%Álvarez-Sala-Walther%NULL%1,                   J.%del-Toro-Cervera%NULL%1,                   F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                   Shuo%Chen%NULL%1,                   Xiunan%Li%NULL%1,                   Shi%Liu%NULL%1,                   Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                   Michiel%Coppens%NULL%1,                   Thijs F.%van Haaps%NULL%1,                   Merijn%Foppen%NULL%1,                   Alexander P.%Vlaar%NULL%1,                   Marcella C.A.%Müller%NULL%1,                   Catherine C.S.%Bouman%NULL%1,                   Ludo F.M.%Beenen%NULL%1,                   Ruud S.%Kootte%NULL%1,                   Jarom%Heijmans%NULL%1,                   Loek P.%Smits%NULL%1,                   Peter I.%Bonta%NULL%1,                   Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,            Julien%Goutay%xref no email%1,            Morgan%Caplan%xref no email%1,            Erika%Parmentier%xref no email%1,            Thibault%Duburcq%xref no email%1,            Fanny%Lassalle%xref no email%1,            Emmanuelle%Jeanpierre%xref no email%1,            Antoine%Rauch%xref no email%1,            Julien%Labreuche%xref no email%1,            Sophie%Susen%xref no email%1,            Nicolas%Cousin%xref no email%1,            Arthur%Durand%xref no email%1,            Ahmed%El Kalioubie%xref no email%1,            Rapha\u00ebl%Favory%xref no email%1,            Patrick%Girardie%xref no email%1,            Marion%Houard%xref no email%1,            Emmanuelle%Jaillette%xref no email%1,            Merc\u00e9%Jourdain%xref no email%1,            Geoffrey%Ledoux%xref no email%1,            Daniel%Mathieu%xref no email%1,            Anne-Sophie%Moreau%xref no email%1,            Christopher%Niles%xref no email%1,            Saad%Nseir%xref no email%1,            Thierry%Onimus%xref no email%1,            S\u00e9bastien%Pr\u00e9au%xref no email%1,            Laurent%Robriquet%xref no email%1,            Anahita%Rouz\u00e9%xref no email%1,            Arthur%Simonnet%xref no email%1,            Sophie%Six%xref no email%1,            Aur\u00e9lia%Toussaint%xref no email%1,            Annabelle%Dupont%xref no email%1,            Anne%Bauters%xref no email%1,            Christophe%Zawadzki%xref no email%1,            Camille%Paris%xref no email%1,            Nathalie%Trillot%xref no email%1,            B\u00e9n\u00e9dicte%Wibaut%xref no email%1,            Audrey%Hochart%xref no email%1,            Catherine%Marichez%xref no email%1,            Vincent%Dalibard%xref no email%1,            Sandrine%Vanderziepe%xref no email%1,            Laureline%Bourgeois%xref no email%1,            Ana\u00efs%Gaul%xref no email%1,            Aur\u00e9lie%Jospin%xref no email%1,            Nataliia%Stepina%xref no email%1,            B\u00e9n\u00e9dicte%Pradines%xref no email%1,            Antoine%Tournoys%xref no email%1,            Thierry%Brousseau%xref no email%1,            Martine%R\u00e9my%xref no email%1,            Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                   Hippolyte%Monnier%NULL%1,                   Ines%Saab%NULL%1,                   Mickael%Tordjman%NULL%1,                   Hendy%Abdoul%NULL%1,                   Laure%Fournier%NULL%1,                   Olivier%Sanchez%NULL%1,                   Christine%Lorut%NULL%1,                   Guillaume%Chassagnon%NULL%1,                   Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                   Elena M.%Bertinato%NULL%1,                   Simone%Birocchi%NULL%1,                   Carolina%Brizio%NULL%1,                   Daniele%Malavolta%NULL%1,                   Marco%Manzoni%NULL%1,                   Gesualdo%Muscarella%NULL%1,                   Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1501,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
@@ -1518,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1530,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4">
@@ -1547,7 +1601,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1559,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
@@ -1576,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1588,7 +1642,7 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6">
@@ -1605,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1617,7 +1671,7 @@
         <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -1634,7 +1688,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1646,7 +1700,7 @@
         <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -1663,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1675,7 +1729,7 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -1692,7 +1746,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1704,7 +1758,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
@@ -1721,7 +1775,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1733,7 +1787,7 @@
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -1750,7 +1804,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1762,7 +1816,7 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
@@ -1779,7 +1833,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1791,7 +1845,7 @@
         <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13">
@@ -1808,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1820,7 +1874,7 @@
         <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +1891,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1849,7 +1903,7 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15">
@@ -1866,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -1878,7 +1932,7 @@
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="347">
   <si>
     <t>Doi</t>
   </si>
@@ -1205,6 +1205,48 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                   Elena M.%Bertinato%NULL%1,                   Simone%Birocchi%NULL%1,                   Carolina%Brizio%NULL%1,                   Daniele%Malavolta%NULL%1,                   Marco%Manzoni%NULL%1,                   Gesualdo%Muscarella%NULL%1,                   Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                    Xavier%Delabranche%NULL%3,                    Xavier%Delabranche%NULL%0,                    François%Severac%NULL%3,                    François%Severac%NULL%0,                    Julie%Helms%NULL%0,                    Julie%Helms%NULL%0,                    Coralie%Pauzet%NULL%1,                    Olivier%Collange%NULL%1,                    Françis%Schneider%NULL%1,                    Aissam%Labani%NULL%2,                    Aissam%Labani%NULL%0,                    Pascal%Bilbault%NULL%1,                    Sébastien%Moliere%NULL%2,                    Sébastien%Moliere%NULL%0,                    Pierre%Leyendecker%NULL%1,                    Catherine%Roy%NULL%2,                    Catherine%Roy%NULL%0,                    Mickaël%Ohana%mickael.ohana@gmail.com%3,                    Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                    Julien%Behr%NULL%2,                    Julien%Behr%NULL%0,                    Paul%Calame%NULL%1,                    Sébastien%Aubry%NULL%1,                    Eric%Delabrousse%NULL%2,                    Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                    Caroline%Bouzad%NULL%2,                    Caroline%Bouzad%NULL%0,                    Evelyne%Peroux%NULL%1,                    Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                    Rebecca S.%Karp Leaf%NULL%1,                    Walter H.%Dzik%NULL%1,                    Jonathan C.T.%Carlson%NULL%1,                    Annemarie E.%Fogerty%NULL%1,                    Anem%Waheed%NULL%1,                    Katayoon%Goodarzi%NULL%1,                    Pavan K.%Bendapudi%NULL%1,                    Larissa%Bornikova%NULL%1,                    Shruti%Gupta%NULL%1,                    David E.%Leaf%NULL%1,                    David J.%Kuter%NULL%1,                    Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%1,             Feifei%Yan%xref no email%1,             Zhouming%Deng%xref no email%1,             Sheng%Zhang%xref no email%0,             Lingfei%Xiao%xref no email%1,             Meng%Wu%xref no email%1,             Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhang%xref no email%1,             Xiaokai%Feng%xref no email%1,             Danqing%Zhang%xref no email%1,             Chunguo%Jiang%xref no email%1,             Heng%Mei%xref no email%1,             Jing%Wang%xref no email%1,             Cuihong%Zhang%xref no email%1,             Hong%Li%xref no email%1,             Xiaoling%Xia%xref no email%1,             Shuangshuang%Kong%xref no email%1,             Jia%Liao%xref no email%1,             Huijun%Jia%xref no email%1,             Xueqin%Pang%xref no email%1,             Yue%Song%xref no email%1,             Ying%Tian%xref no email%1,             Bin%Wang%xref no email%1,             Chun%Wu%xref no email%1,             Hongliang%Yuan%xref no email%1,             Yongxing%Zhang%xref no email%1,             Yuman%Li%xref no email%1,             Wei%Sun%xref no email%1,             Yanting%Zhang%xref no email%1,             Shuangshuang%Zhu%xref no email%1,             Shuyuan%Wang%xref no email%1,             Yuji%Xie%xref no email%1,             Shuping%Ge%xref no email%1,             Liming%Zhang%xref no email%1,             Yu%Hu%xref no email%0,             Mingxing%Xie%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                    Maxime%Leclerc%NULL%1,                    Camille%Chochois%NULL%1,                    Jean‐Michel%Monsallier%NULL%1,                    Michel%Ramakers%NULL%1,                    Malika%Auvray%NULL%1,                    Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                    Charles%Tacquard%NULL%1,                    François%Severac%NULL%0,                    Ian%Leonard-Lorant%NULL%1,                    Mickaël%Ohana%NULL%0,                    Xavier%Delabranche%NULL%0,                    Hamid%Merdji%NULL%1,                    Raphaël%Clere-Jehl%NULL%1,                    Malika%Schenck%NULL%1,                    Florence%Fagot Gandet%NULL%1,                    Samira%Fafi-Kremer%NULL%0,                    Vincent%Castelain%NULL%1,                    Francis%Schneider%NULL%0,                    Lélia%Grunebaum%NULL%1,                    Eduardo%Anglés-Cano%NULL%1,                    Laurent%Sattler%NULL%1,                    Paul-Michel%Mertes%NULL%0,                    Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                    E.%Cervilla-Muñoz%NULL%1,                    L.%Ordieres-Ortega%NULL%1,                    A.%Parra-Virto%NULL%1,                    M.%Toledano-Macías%NULL%1,                    N.%Toledo-Samaniego%NULL%1,                    A.%García-García%NULL%1,                    I.%García-Fernández-Bravo%NULL%1,                    Z.%Ji%NULL%1,                    J.%de-Miguel-Diez%NULL%1,                    L.A.%Álvarez-Sala-Walther%NULL%1,                    J.%del-Toro-Cervera%NULL%1,                    F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                    Shuo%Chen%NULL%1,                    Xiunan%Li%NULL%1,                    Shi%Liu%NULL%1,                    Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                    Michiel%Coppens%NULL%1,                    Thijs F.%van Haaps%NULL%1,                    Merijn%Foppen%NULL%1,                    Alexander P.%Vlaar%NULL%1,                    Marcella C.A.%Müller%NULL%1,                    Catherine C.S.%Bouman%NULL%1,                    Ludo F.M.%Beenen%NULL%1,                    Ruud S.%Kootte%NULL%1,                    Jarom%Heijmans%NULL%1,                    Loek P.%Smits%NULL%1,                    Peter I.%Bonta%NULL%1,                    Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%1,             Julien%Goutay%xref no email%1,             Morgan%Caplan%xref no email%1,             Erika%Parmentier%xref no email%1,             Thibault%Duburcq%xref no email%1,             Fanny%Lassalle%xref no email%1,             Emmanuelle%Jeanpierre%xref no email%1,             Antoine%Rauch%xref no email%1,             Julien%Labreuche%xref no email%1,             Sophie%Susen%xref no email%1,             Nicolas%Cousin%xref no email%1,             Arthur%Durand%xref no email%1,             Ahmed%El Kalioubie%xref no email%1,             Rapha\u00ebl%Favory%xref no email%1,             Patrick%Girardie%xref no email%1,             Marion%Houard%xref no email%1,             Emmanuelle%Jaillette%xref no email%1,             Merc\u00e9%Jourdain%xref no email%1,             Geoffrey%Ledoux%xref no email%1,             Daniel%Mathieu%xref no email%1,             Anne-Sophie%Moreau%xref no email%1,             Christopher%Niles%xref no email%1,             Saad%Nseir%xref no email%1,             Thierry%Onimus%xref no email%1,             S\u00e9bastien%Pr\u00e9au%xref no email%1,             Laurent%Robriquet%xref no email%1,             Anahita%Rouz\u00e9%xref no email%1,             Arthur%Simonnet%xref no email%1,             Sophie%Six%xref no email%1,             Aur\u00e9lia%Toussaint%xref no email%1,             Annabelle%Dupont%xref no email%1,             Anne%Bauters%xref no email%1,             Christophe%Zawadzki%xref no email%1,             Camille%Paris%xref no email%1,             Nathalie%Trillot%xref no email%1,             B\u00e9n\u00e9dicte%Wibaut%xref no email%1,             Audrey%Hochart%xref no email%1,             Catherine%Marichez%xref no email%1,             Vincent%Dalibard%xref no email%1,             Sandrine%Vanderziepe%xref no email%1,             Laureline%Bourgeois%xref no email%1,             Ana\u00efs%Gaul%xref no email%1,             Aur\u00e9lie%Jospin%xref no email%1,             Nataliia%Stepina%xref no email%1,             B\u00e9n\u00e9dicte%Pradines%xref no email%1,             Antoine%Tournoys%xref no email%1,             Thierry%Brousseau%xref no email%1,             Martine%R\u00e9my%xref no email%1,             Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                    Hippolyte%Monnier%NULL%1,                    Ines%Saab%NULL%1,                    Mickael%Tordjman%NULL%1,                    Hendy%Abdoul%NULL%1,                    Laure%Fournier%NULL%1,                    Olivier%Sanchez%NULL%1,                    Christine%Lorut%NULL%1,                    Guillaume%Chassagnon%NULL%1,                    Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                    Elena M.%Bertinato%NULL%1,                    Simone%Birocchi%NULL%1,                    Carolina%Brizio%NULL%1,                    Daniele%Malavolta%NULL%1,                    Marco%Manzoni%NULL%1,                    Gesualdo%Muscarella%NULL%1,                    Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1585,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1572,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1601,7 +1643,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1630,7 +1672,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1659,7 +1701,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1688,7 +1730,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1717,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1746,7 +1788,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1775,7 +1817,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1804,7 +1846,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1833,7 +1875,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1862,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1891,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1920,7 +1962,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1247,6 +1247,186 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                    Elena M.%Bertinato%NULL%1,                    Simone%Birocchi%NULL%1,                    Carolina%Brizio%NULL%1,                    Daniele%Malavolta%NULL%1,                    Marco%Manzoni%NULL%1,                    Gesualdo%Muscarella%NULL%1,                    Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                     Xavier%Delabranche%NULL%3,                     Xavier%Delabranche%NULL%0,                     François%Severac%NULL%3,                     François%Severac%NULL%0,                     Julie%Helms%NULL%0,                     Julie%Helms%NULL%0,                     Coralie%Pauzet%NULL%1,                     Olivier%Collange%NULL%1,                     Françis%Schneider%NULL%1,                     Aissam%Labani%NULL%2,                     Aissam%Labani%NULL%0,                     Pascal%Bilbault%NULL%1,                     Sébastien%Moliere%NULL%2,                     Sébastien%Moliere%NULL%0,                     Pierre%Leyendecker%NULL%1,                     Catherine%Roy%NULL%2,                     Catherine%Roy%NULL%0,                     Mickaël%Ohana%mickael.ohana@gmail.com%3,                     Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                     Julien%Behr%NULL%2,                     Julien%Behr%NULL%0,                     Paul%Calame%NULL%1,                     Sébastien%Aubry%NULL%1,                     Eric%Delabrousse%NULL%2,                     Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                     Caroline%Bouzad%NULL%2,                     Caroline%Bouzad%NULL%0,                     Evelyne%Peroux%NULL%1,                     Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                     Rebecca S.%Karp Leaf%NULL%1,                     Walter H.%Dzik%NULL%1,                     Jonathan C.T.%Carlson%NULL%1,                     Annemarie E.%Fogerty%NULL%1,                     Anem%Waheed%NULL%1,                     Katayoon%Goodarzi%NULL%1,                     Pavan K.%Bendapudi%NULL%1,                     Larissa%Bornikova%NULL%1,                     Shruti%Gupta%NULL%1,                     David E.%Leaf%NULL%1,                     David J.%Kuter%NULL%1,                     Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Ren%xref no email%0, Feifei%Yan%xref no email%1, Zhouming%Deng%xref no email%1, Sheng%Zhang%xref no email%0, Lingfei%Xiao%xref no email%1, Meng%Wu%xref no email%1, Lin%Cai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                     Maxime%Leclerc%NULL%1,                     Camille%Chochois%NULL%1,                     Jean‐Michel%Monsallier%NULL%1,                     Michel%Ramakers%NULL%1,                     Malika%Auvray%NULL%1,                     Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                     Charles%Tacquard%NULL%1,                     François%Severac%NULL%0,                     Ian%Leonard-Lorant%NULL%1,                     Mickaël%Ohana%NULL%0,                     Xavier%Delabranche%NULL%0,                     Hamid%Merdji%NULL%1,                     Raphaël%Clere-Jehl%NULL%1,                     Malika%Schenck%NULL%1,                     Florence%Fagot Gandet%NULL%1,                     Samira%Fafi-Kremer%NULL%0,                     Vincent%Castelain%NULL%1,                     Francis%Schneider%NULL%0,                     Lélia%Grunebaum%NULL%1,                     Eduardo%Anglés-Cano%NULL%1,                     Laurent%Sattler%NULL%1,                     Paul-Michel%Mertes%NULL%0,                     Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                     E.%Cervilla-Muñoz%NULL%1,                     L.%Ordieres-Ortega%NULL%1,                     A.%Parra-Virto%NULL%1,                     M.%Toledano-Macías%NULL%1,                     N.%Toledo-Samaniego%NULL%1,                     A.%García-García%NULL%1,                     I.%García-Fernández-Bravo%NULL%1,                     Z.%Ji%NULL%1,                     J.%de-Miguel-Diez%NULL%1,                     L.A.%Álvarez-Sala-Walther%NULL%1,                     J.%del-Toro-Cervera%NULL%1,                     F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                     Shuo%Chen%NULL%1,                     Xiunan%Li%NULL%1,                     Shi%Liu%NULL%1,                     Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                     Michiel%Coppens%NULL%1,                     Thijs F.%van Haaps%NULL%1,                     Merijn%Foppen%NULL%1,                     Alexander P.%Vlaar%NULL%1,                     Marcella C.A.%Müller%NULL%1,                     Catherine C.S.%Bouman%NULL%1,                     Ludo F.M.%Beenen%NULL%1,                     Ruud S.%Kootte%NULL%1,                     Jarom%Heijmans%NULL%1,                     Loek P.%Smits%NULL%1,                     Peter I.%Bonta%NULL%1,                     Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julien%Poissy%xref no email%0, Julien%Goutay%xref no email%1, Morgan%Caplan%xref no email%1, Erika%Parmentier%xref no email%1, Thibault%Duburcq%xref no email%1, Fanny%Lassalle%xref no email%1, Emmanuelle%Jeanpierre%xref no email%1, Antoine%Rauch%xref no email%1, Julien%Labreuche%xref no email%1, Sophie%Susen%xref no email%1, Nicolas%Cousin%xref no email%0, Arthur%Durand%xref no email%1, Ahmed%El Kalioubie%xref no email%1, Rapha\u00ebl%Favory%xref no email%1, Patrick%Girardie%xref no email%1, Marion%Houard%xref no email%1, Emmanuelle%Jaillette%xref no email%1, Merc\u00e9%Jourdain%xref no email%1, Geoffrey%Ledoux%xref no email%1, Daniel%Mathieu%xref no email%1, Anne-Sophie%Moreau%xref no email%1, Christopher%Niles%xref no email%1, Saad%Nseir%xref no email%1, Thierry%Onimus%xref no email%1, S\u00e9bastien%Pr\u00e9au%xref no email%1, Laurent%Robriquet%xref no email%1, Anahita%Rouz\u00e9%xref no email%1, Arthur%Simonnet%xref no email%0, Sophie%Six%xref no email%1, Aur\u00e9lia%Toussaint%xref no email%1, Annabelle%Dupont%xref no email%1, Anne%Bauters%xref no email%1, Christophe%Zawadzki%xref no email%1, Camille%Paris%xref no email%1, Nathalie%Trillot%xref no email%1, B\u00e9n\u00e9dicte%Wibaut%xref no email%1, Audrey%Hochart%xref no email%1, Catherine%Marichez%xref no email%1, Vincent%Dalibard%xref no email%1, Sandrine%Vanderziepe%xref no email%1, Laureline%Bourgeois%xref no email%1, Ana\u00efs%Gaul%xref no email%1, Aur\u00e9lie%Jospin%xref no email%1, Nataliia%Stepina%xref no email%1, B\u00e9n\u00e9dicte%Pradines%xref no email%1, Antoine%Tournoys%xref no email%1, Thierry%Brousseau%xref no email%1, Martine%R\u00e9my%xref no email%1, Antoine%Hutt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                     Hippolyte%Monnier%NULL%1,                     Ines%Saab%NULL%1,                     Mickael%Tordjman%NULL%1,                     Hendy%Abdoul%NULL%1,                     Laure%Fournier%NULL%1,                     Olivier%Sanchez%NULL%1,                     Christine%Lorut%NULL%1,                     Guillaume%Chassagnon%NULL%1,                     Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                     Elena M.%Bertinato%NULL%1,                     Simone%Birocchi%NULL%1,                     Carolina%Brizio%NULL%1,                     Daniele%Malavolta%NULL%1,                     Marco%Manzoni%NULL%1,                     Gesualdo%Muscarella%NULL%1,                     Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                      Xavier%Delabranche%NULL%3,                      Xavier%Delabranche%NULL%0,                      François%Severac%NULL%3,                      François%Severac%NULL%0,                      Julie%Helms%NULL%0,                      Julie%Helms%NULL%0,                      Coralie%Pauzet%NULL%1,                      Olivier%Collange%NULL%1,                      Françis%Schneider%NULL%1,                      Aissam%Labani%NULL%2,                      Aissam%Labani%NULL%0,                      Pascal%Bilbault%NULL%1,                      Sébastien%Moliere%NULL%2,                      Sébastien%Moliere%NULL%0,                      Pierre%Leyendecker%NULL%1,                      Catherine%Roy%NULL%2,                      Catherine%Roy%NULL%0,                      Mickaël%Ohana%mickael.ohana@gmail.com%3,                      Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                      Julien%Behr%NULL%2,                      Julien%Behr%NULL%0,                      Paul%Calame%NULL%1,                      Sébastien%Aubry%NULL%1,                      Eric%Delabrousse%NULL%2,                      Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                      Caroline%Bouzad%NULL%2,                      Caroline%Bouzad%NULL%0,                      Evelyne%Peroux%NULL%1,                      Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                      Rebecca S.%Karp Leaf%NULL%1,                      Walter H.%Dzik%NULL%1,                      Jonathan C.T.%Carlson%NULL%1,                      Annemarie E.%Fogerty%NULL%1,                      Anem%Waheed%NULL%1,                      Katayoon%Goodarzi%NULL%1,                      Pavan K.%Bendapudi%NULL%1,                      Larissa%Bornikova%NULL%1,                      Shruti%Gupta%NULL%1,                      David E.%Leaf%NULL%1,                      David J.%Kuter%NULL%1,                      Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                      Maxime%Leclerc%NULL%1,                      Camille%Chochois%NULL%1,                      Jean‐Michel%Monsallier%NULL%1,                      Michel%Ramakers%NULL%1,                      Malika%Auvray%NULL%1,                      Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                      Charles%Tacquard%NULL%1,                      François%Severac%NULL%0,                      Ian%Leonard-Lorant%NULL%1,                      Mickaël%Ohana%NULL%0,                      Xavier%Delabranche%NULL%0,                      Hamid%Merdji%NULL%1,                      Raphaël%Clere-Jehl%NULL%1,                      Malika%Schenck%NULL%1,                      Florence%Fagot Gandet%NULL%1,                      Samira%Fafi-Kremer%NULL%0,                      Vincent%Castelain%NULL%1,                      Francis%Schneider%NULL%0,                      Lélia%Grunebaum%NULL%1,                      Eduardo%Anglés-Cano%NULL%1,                      Laurent%Sattler%NULL%1,                      Paul-Michel%Mertes%NULL%0,                      Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                      E.%Cervilla-Muñoz%NULL%1,                      L.%Ordieres-Ortega%NULL%1,                      A.%Parra-Virto%NULL%1,                      M.%Toledano-Macías%NULL%1,                      N.%Toledo-Samaniego%NULL%1,                      A.%García-García%NULL%1,                      I.%García-Fernández-Bravo%NULL%1,                      Z.%Ji%NULL%1,                      J.%de-Miguel-Diez%NULL%1,                      L.A.%Álvarez-Sala-Walther%NULL%1,                      J.%del-Toro-Cervera%NULL%1,                      F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                      Shuo%Chen%NULL%1,                      Xiunan%Li%NULL%1,                      Shi%Liu%NULL%1,                      Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                      Michiel%Coppens%NULL%1,                      Thijs F.%van Haaps%NULL%1,                      Merijn%Foppen%NULL%1,                      Alexander P.%Vlaar%NULL%1,                      Marcella C.A.%Müller%NULL%1,                      Catherine C.S.%Bouman%NULL%1,                      Ludo F.M.%Beenen%NULL%1,                      Ruud S.%Kootte%NULL%1,                      Jarom%Heijmans%NULL%1,                      Loek P.%Smits%NULL%1,                      Peter I.%Bonta%NULL%1,                      Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                      Hippolyte%Monnier%NULL%1,                      Ines%Saab%NULL%1,                      Mickael%Tordjman%NULL%1,                      Hendy%Abdoul%NULL%1,                      Laure%Fournier%NULL%1,                      Olivier%Sanchez%NULL%1,                      Christine%Lorut%NULL%1,                      Guillaume%Chassagnon%NULL%1,                      Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                      Elena M.%Bertinato%NULL%1,                      Simone%Birocchi%NULL%1,                      Carolina%Brizio%NULL%1,                      Daniele%Malavolta%NULL%1,                      Marco%Manzoni%NULL%1,                      Gesualdo%Muscarella%NULL%1,                      Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                       Xavier%Delabranche%NULL%3,                       Xavier%Delabranche%NULL%0,                       François%Severac%NULL%3,                       François%Severac%NULL%0,                       Julie%Helms%NULL%0,                       Julie%Helms%NULL%0,                       Coralie%Pauzet%NULL%1,                       Olivier%Collange%NULL%1,                       Françis%Schneider%NULL%1,                       Aissam%Labani%NULL%2,                       Aissam%Labani%NULL%0,                       Pascal%Bilbault%NULL%1,                       Sébastien%Moliere%NULL%2,                       Sébastien%Moliere%NULL%0,                       Pierre%Leyendecker%NULL%1,                       Catherine%Roy%NULL%2,                       Catherine%Roy%NULL%0,                       Mickaël%Ohana%mickael.ohana@gmail.com%3,                       Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                       Julien%Behr%NULL%2,                       Julien%Behr%NULL%0,                       Paul%Calame%NULL%1,                       Sébastien%Aubry%NULL%1,                       Eric%Delabrousse%NULL%2,                       Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                       Caroline%Bouzad%NULL%2,                       Caroline%Bouzad%NULL%0,                       Evelyne%Peroux%NULL%1,                       Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                       Rebecca S.%Karp Leaf%NULL%1,                       Walter H.%Dzik%NULL%1,                       Jonathan C.T.%Carlson%NULL%1,                       Annemarie E.%Fogerty%NULL%1,                       Anem%Waheed%NULL%1,                       Katayoon%Goodarzi%NULL%1,                       Pavan K.%Bendapudi%NULL%1,                       Larissa%Bornikova%NULL%1,                       Shruti%Gupta%NULL%1,                       David E.%Leaf%NULL%1,                       David J.%Kuter%NULL%1,                       Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                       Maxime%Leclerc%NULL%1,                       Camille%Chochois%NULL%1,                       Jean‐Michel%Monsallier%NULL%1,                       Michel%Ramakers%NULL%1,                       Malika%Auvray%NULL%1,                       Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                       Charles%Tacquard%NULL%1,                       François%Severac%NULL%0,                       Ian%Leonard-Lorant%NULL%1,                       Mickaël%Ohana%NULL%0,                       Xavier%Delabranche%NULL%0,                       Hamid%Merdji%NULL%1,                       Raphaël%Clere-Jehl%NULL%1,                       Malika%Schenck%NULL%1,                       Florence%Fagot Gandet%NULL%1,                       Samira%Fafi-Kremer%NULL%0,                       Vincent%Castelain%NULL%1,                       Francis%Schneider%NULL%0,                       Lélia%Grunebaum%NULL%1,                       Eduardo%Anglés-Cano%NULL%1,                       Laurent%Sattler%NULL%1,                       Paul-Michel%Mertes%NULL%0,                       Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                       E.%Cervilla-Muñoz%NULL%1,                       L.%Ordieres-Ortega%NULL%1,                       A.%Parra-Virto%NULL%1,                       M.%Toledano-Macías%NULL%1,                       N.%Toledo-Samaniego%NULL%1,                       A.%García-García%NULL%1,                       I.%García-Fernández-Bravo%NULL%1,                       Z.%Ji%NULL%1,                       J.%de-Miguel-Diez%NULL%1,                       L.A.%Álvarez-Sala-Walther%NULL%1,                       J.%del-Toro-Cervera%NULL%1,                       F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                       Shuo%Chen%NULL%1,                       Xiunan%Li%NULL%1,                       Shi%Liu%NULL%1,                       Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                       Michiel%Coppens%NULL%1,                       Thijs F.%van Haaps%NULL%1,                       Merijn%Foppen%NULL%1,                       Alexander P.%Vlaar%NULL%1,                       Marcella C.A.%Müller%NULL%1,                       Catherine C.S.%Bouman%NULL%1,                       Ludo F.M.%Beenen%NULL%1,                       Ruud S.%Kootte%NULL%1,                       Jarom%Heijmans%NULL%1,                       Loek P.%Smits%NULL%1,                       Peter I.%Bonta%NULL%1,                       Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                       Hippolyte%Monnier%NULL%1,                       Ines%Saab%NULL%1,                       Mickael%Tordjman%NULL%1,                       Hendy%Abdoul%NULL%1,                       Laure%Fournier%NULL%1,                       Olivier%Sanchez%NULL%1,                       Christine%Lorut%NULL%1,                       Guillaume%Chassagnon%NULL%1,                       Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                       Elena M.%Bertinato%NULL%1,                       Simone%Birocchi%NULL%1,                       Carolina%Brizio%NULL%1,                       Daniele%Malavolta%NULL%1,                       Marco%Manzoni%NULL%1,                       Gesualdo%Muscarella%NULL%1,                       Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                        Xavier%Delabranche%NULL%3,                        Xavier%Delabranche%NULL%0,                        François%Severac%NULL%3,                        François%Severac%NULL%0,                        Julie%Helms%NULL%0,                        Julie%Helms%NULL%0,                        Coralie%Pauzet%NULL%1,                        Olivier%Collange%NULL%1,                        Françis%Schneider%NULL%1,                        Aissam%Labani%NULL%2,                        Aissam%Labani%NULL%0,                        Pascal%Bilbault%NULL%1,                        Sébastien%Moliere%NULL%2,                        Sébastien%Moliere%NULL%0,                        Pierre%Leyendecker%NULL%1,                        Catherine%Roy%NULL%2,                        Catherine%Roy%NULL%0,                        Mickaël%Ohana%mickael.ohana@gmail.com%3,                        Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                        Julien%Behr%NULL%2,                        Julien%Behr%NULL%0,                        Paul%Calame%NULL%1,                        Sébastien%Aubry%NULL%1,                        Eric%Delabrousse%NULL%2,                        Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                        Caroline%Bouzad%NULL%2,                        Caroline%Bouzad%NULL%0,                        Evelyne%Peroux%NULL%1,                        Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                        Rebecca S.%Karp Leaf%NULL%1,                        Walter H.%Dzik%NULL%1,                        Jonathan C.T.%Carlson%NULL%1,                        Annemarie E.%Fogerty%NULL%1,                        Anem%Waheed%NULL%1,                        Katayoon%Goodarzi%NULL%1,                        Pavan K.%Bendapudi%NULL%1,                        Larissa%Bornikova%NULL%1,                        Shruti%Gupta%NULL%1,                        David E.%Leaf%NULL%1,                        David J.%Kuter%NULL%1,                        Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                        Maxime%Leclerc%NULL%1,                        Camille%Chochois%NULL%1,                        Jean‐Michel%Monsallier%NULL%1,                        Michel%Ramakers%NULL%1,                        Malika%Auvray%NULL%1,                        Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                        Charles%Tacquard%NULL%1,                        François%Severac%NULL%0,                        Ian%Leonard-Lorant%NULL%1,                        Mickaël%Ohana%NULL%0,                        Xavier%Delabranche%NULL%0,                        Hamid%Merdji%NULL%1,                        Raphaël%Clere-Jehl%NULL%1,                        Malika%Schenck%NULL%1,                        Florence%Fagot Gandet%NULL%1,                        Samira%Fafi-Kremer%NULL%0,                        Vincent%Castelain%NULL%1,                        Francis%Schneider%NULL%0,                        Lélia%Grunebaum%NULL%1,                        Eduardo%Anglés-Cano%NULL%1,                        Laurent%Sattler%NULL%1,                        Paul-Michel%Mertes%NULL%0,                        Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                        E.%Cervilla-Muñoz%NULL%1,                        L.%Ordieres-Ortega%NULL%1,                        A.%Parra-Virto%NULL%1,                        M.%Toledano-Macías%NULL%1,                        N.%Toledo-Samaniego%NULL%1,                        A.%García-García%NULL%1,                        I.%García-Fernández-Bravo%NULL%1,                        Z.%Ji%NULL%1,                        J.%de-Miguel-Diez%NULL%1,                        L.A.%Álvarez-Sala-Walther%NULL%1,                        J.%del-Toro-Cervera%NULL%1,                        F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                        Shuo%Chen%NULL%1,                        Xiunan%Li%NULL%1,                        Shi%Liu%NULL%1,                        Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                        Michiel%Coppens%NULL%1,                        Thijs F.%van Haaps%NULL%1,                        Merijn%Foppen%NULL%1,                        Alexander P.%Vlaar%NULL%1,                        Marcella C.A.%Müller%NULL%1,                        Catherine C.S.%Bouman%NULL%1,                        Ludo F.M.%Beenen%NULL%1,                        Ruud S.%Kootte%NULL%1,                        Jarom%Heijmans%NULL%1,                        Loek P.%Smits%NULL%1,                        Peter I.%Bonta%NULL%1,                        Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                        Hippolyte%Monnier%NULL%1,                        Ines%Saab%NULL%1,                        Mickael%Tordjman%NULL%1,                        Hendy%Abdoul%NULL%1,                        Laure%Fournier%NULL%1,                        Olivier%Sanchez%NULL%1,                        Christine%Lorut%NULL%1,                        Guillaume%Chassagnon%NULL%1,                        Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                        Elena M.%Bertinato%NULL%1,                        Simone%Birocchi%NULL%1,                        Carolina%Brizio%NULL%1,                        Daniele%Malavolta%NULL%1,                        Marco%Manzoni%NULL%1,                        Gesualdo%Muscarella%NULL%1,                        Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                         Xavier%Delabranche%NULL%3,                         Xavier%Delabranche%NULL%0,                         François%Severac%NULL%3,                         François%Severac%NULL%0,                         Julie%Helms%NULL%0,                         Julie%Helms%NULL%0,                         Coralie%Pauzet%NULL%1,                         Olivier%Collange%NULL%1,                         Françis%Schneider%NULL%1,                         Aissam%Labani%NULL%2,                         Aissam%Labani%NULL%0,                         Pascal%Bilbault%NULL%1,                         Sébastien%Moliere%NULL%2,                         Sébastien%Moliere%NULL%0,                         Pierre%Leyendecker%NULL%1,                         Catherine%Roy%NULL%2,                         Catherine%Roy%NULL%0,                         Mickaël%Ohana%mickael.ohana@gmail.com%3,                         Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                         Julien%Behr%NULL%2,                         Julien%Behr%NULL%0,                         Paul%Calame%NULL%1,                         Sébastien%Aubry%NULL%1,                         Eric%Delabrousse%NULL%2,                         Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                         Caroline%Bouzad%NULL%2,                         Caroline%Bouzad%NULL%0,                         Evelyne%Peroux%NULL%1,                         Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                         Rebecca S.%Karp Leaf%NULL%1,                         Walter H.%Dzik%NULL%1,                         Jonathan C.T.%Carlson%NULL%1,                         Annemarie E.%Fogerty%NULL%1,                         Anem%Waheed%NULL%1,                         Katayoon%Goodarzi%NULL%1,                         Pavan K.%Bendapudi%NULL%1,                         Larissa%Bornikova%NULL%1,                         Shruti%Gupta%NULL%1,                         David E.%Leaf%NULL%1,                         David J.%Kuter%NULL%1,                         Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                         Maxime%Leclerc%NULL%1,                         Camille%Chochois%NULL%1,                         Jean‐Michel%Monsallier%NULL%1,                         Michel%Ramakers%NULL%1,                         Malika%Auvray%NULL%1,                         Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                         Charles%Tacquard%NULL%1,                         François%Severac%NULL%0,                         Ian%Leonard-Lorant%NULL%1,                         Mickaël%Ohana%NULL%0,                         Xavier%Delabranche%NULL%0,                         Hamid%Merdji%NULL%1,                         Raphaël%Clere-Jehl%NULL%1,                         Malika%Schenck%NULL%1,                         Florence%Fagot Gandet%NULL%1,                         Samira%Fafi-Kremer%NULL%0,                         Vincent%Castelain%NULL%1,                         Francis%Schneider%NULL%0,                         Lélia%Grunebaum%NULL%1,                         Eduardo%Anglés-Cano%NULL%1,                         Laurent%Sattler%NULL%1,                         Paul-Michel%Mertes%NULL%0,                         Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                         E.%Cervilla-Muñoz%NULL%1,                         L.%Ordieres-Ortega%NULL%1,                         A.%Parra-Virto%NULL%1,                         M.%Toledano-Macías%NULL%1,                         N.%Toledo-Samaniego%NULL%1,                         A.%García-García%NULL%1,                         I.%García-Fernández-Bravo%NULL%1,                         Z.%Ji%NULL%1,                         J.%de-Miguel-Diez%NULL%1,                         L.A.%Álvarez-Sala-Walther%NULL%1,                         J.%del-Toro-Cervera%NULL%1,                         F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                         Shuo%Chen%NULL%1,                         Xiunan%Li%NULL%1,                         Shi%Liu%NULL%1,                         Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                         Michiel%Coppens%NULL%1,                         Thijs F.%van Haaps%NULL%1,                         Merijn%Foppen%NULL%1,                         Alexander P.%Vlaar%NULL%1,                         Marcella C.A.%Müller%NULL%1,                         Catherine C.S.%Bouman%NULL%1,                         Ludo F.M.%Beenen%NULL%1,                         Ruud S.%Kootte%NULL%1,                         Jarom%Heijmans%NULL%1,                         Loek P.%Smits%NULL%1,                         Peter I.%Bonta%NULL%1,                         Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                         Hippolyte%Monnier%NULL%1,                         Ines%Saab%NULL%1,                         Mickael%Tordjman%NULL%1,                         Hendy%Abdoul%NULL%1,                         Laure%Fournier%NULL%1,                         Olivier%Sanchez%NULL%1,                         Christine%Lorut%NULL%1,                         Guillaume%Chassagnon%NULL%1,                         Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                         Elena M.%Bertinato%NULL%1,                         Simone%Birocchi%NULL%1,                         Carolina%Brizio%NULL%1,                         Daniele%Malavolta%NULL%1,                         Marco%Manzoni%NULL%1,                         Gesualdo%Muscarella%NULL%1,                         Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1570,6 +1750,9 @@
       <c r="I1" t="s">
         <v>104</v>
       </c>
+      <c r="J1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1585,7 +1768,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1598,6 +1781,9 @@
       </c>
       <c r="I2" t="s">
         <v>316</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1627,6 +1813,9 @@
       </c>
       <c r="I3" t="s">
         <v>316</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1643,7 +1832,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1656,6 +1845,9 @@
       </c>
       <c r="I4" t="s">
         <v>319</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1672,7 +1864,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1685,6 +1877,9 @@
       </c>
       <c r="I5" t="s">
         <v>321</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1701,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1710,10 +1905,13 @@
         <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>323</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7">
@@ -1730,7 +1928,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1739,10 +1937,13 @@
         <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="I7" t="s">
-        <v>323</v>
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="8">
@@ -1759,7 +1960,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1772,6 +1973,9 @@
       </c>
       <c r="I8" t="s">
         <v>321</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1788,7 +1992,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1801,6 +2005,9 @@
       </c>
       <c r="I9" t="s">
         <v>319</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +2024,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -1830,6 +2037,9 @@
       </c>
       <c r="I10" t="s">
         <v>321</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1846,7 +2056,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1859,6 +2069,9 @@
       </c>
       <c r="I11" t="s">
         <v>321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1875,7 +2088,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1888,6 +2101,9 @@
       </c>
       <c r="I12" t="s">
         <v>321</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1904,7 +2120,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1913,10 +2129,13 @@
         <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="14">
@@ -1933,7 +2152,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1946,6 +2165,9 @@
       </c>
       <c r="I14" t="s">
         <v>316</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1962,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -1975,6 +2197,9 @@
       </c>
       <c r="I15" t="s">
         <v>316</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/110.xlsx
+++ b/Covid_19_Dataset_and_References/References/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="429">
   <si>
     <t>Doi</t>
   </si>
@@ -1427,6 +1427,72 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                         Elena M.%Bertinato%NULL%1,                         Simone%Birocchi%NULL%1,                         Carolina%Brizio%NULL%1,                         Daniele%Malavolta%NULL%1,                         Marco%Manzoni%NULL%1,                         Gesualdo%Muscarella%NULL%1,                         Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                          Xavier%Delabranche%NULL%3,                          Xavier%Delabranche%NULL%0,                          François%Severac%NULL%3,                          François%Severac%NULL%0,                          Julie%Helms%NULL%0,                          Julie%Helms%NULL%0,                          Coralie%Pauzet%NULL%1,                          Olivier%Collange%NULL%1,                          Françis%Schneider%NULL%1,                          Aissam%Labani%NULL%2,                          Aissam%Labani%NULL%0,                          Pascal%Bilbault%NULL%1,                          Sébastien%Moliere%NULL%2,                          Sébastien%Moliere%NULL%0,                          Pierre%Leyendecker%NULL%1,                          Catherine%Roy%NULL%2,                          Catherine%Roy%NULL%0,                          Mickaël%Ohana%mickael.ohana@gmail.com%3,                          Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                          Julien%Behr%NULL%2,                          Julien%Behr%NULL%0,                          Paul%Calame%NULL%1,                          Sébastien%Aubry%NULL%1,                          Eric%Delabrousse%NULL%2,                          Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                          Caroline%Bouzad%NULL%2,                          Caroline%Bouzad%NULL%0,                          Evelyne%Peroux%NULL%1,                          Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                          Rebecca S.%Karp Leaf%NULL%1,                          Walter H.%Dzik%NULL%1,                          Jonathan C.T.%Carlson%NULL%1,                          Annemarie E.%Fogerty%NULL%1,                          Anem%Waheed%NULL%1,                          Katayoon%Goodarzi%NULL%1,                          Pavan K.%Bendapudi%NULL%1,                          Larissa%Bornikova%NULL%1,                          Shruti%Gupta%NULL%1,                          David E.%Leaf%NULL%1,                          David J.%Kuter%NULL%1,                          Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                          Maxime%Leclerc%NULL%1,                          Camille%Chochois%NULL%1,                          Jean‐Michel%Monsallier%NULL%1,                          Michel%Ramakers%NULL%1,                          Malika%Auvray%NULL%1,                          Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                          Charles%Tacquard%NULL%1,                          François%Severac%NULL%0,                          Ian%Leonard-Lorant%NULL%1,                          Mickaël%Ohana%NULL%0,                          Xavier%Delabranche%NULL%0,                          Hamid%Merdji%NULL%1,                          Raphaël%Clere-Jehl%NULL%1,                          Malika%Schenck%NULL%1,                          Florence%Fagot Gandet%NULL%1,                          Samira%Fafi-Kremer%NULL%0,                          Vincent%Castelain%NULL%1,                          Francis%Schneider%NULL%0,                          Lélia%Grunebaum%NULL%1,                          Eduardo%Anglés-Cano%NULL%1,                          Laurent%Sattler%NULL%1,                          Paul-Michel%Mertes%NULL%0,                          Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                          E.%Cervilla-Muñoz%NULL%1,                          L.%Ordieres-Ortega%NULL%1,                          A.%Parra-Virto%NULL%1,                          M.%Toledano-Macías%NULL%1,                          N.%Toledo-Samaniego%NULL%1,                          A.%García-García%NULL%1,                          I.%García-Fernández-Bravo%NULL%1,                          Z.%Ji%NULL%1,                          J.%de-Miguel-Diez%NULL%1,                          L.A.%Álvarez-Sala-Walther%NULL%1,                          J.%del-Toro-Cervera%NULL%1,                          F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                          Shuo%Chen%NULL%1,                          Xiunan%Li%NULL%1,                          Shi%Liu%NULL%1,                          Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                          Michiel%Coppens%NULL%1,                          Thijs F.%van Haaps%NULL%1,                          Merijn%Foppen%NULL%1,                          Alexander P.%Vlaar%NULL%1,                          Marcella C.A.%Müller%NULL%1,                          Catherine C.S.%Bouman%NULL%1,                          Ludo F.M.%Beenen%NULL%1,                          Ruud S.%Kootte%NULL%1,                          Jarom%Heijmans%NULL%1,                          Loek P.%Smits%NULL%1,                          Peter I.%Bonta%NULL%1,                          Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                          Hippolyte%Monnier%NULL%1,                          Ines%Saab%NULL%1,                          Mickael%Tordjman%NULL%1,                          Hendy%Abdoul%NULL%1,                          Laure%Fournier%NULL%1,                          Olivier%Sanchez%NULL%1,                          Christine%Lorut%NULL%1,                          Guillaume%Chassagnon%NULL%1,                          Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                          Elena M.%Bertinato%NULL%1,                          Simone%Birocchi%NULL%1,                          Carolina%Brizio%NULL%1,                          Daniele%Malavolta%NULL%1,                          Marco%Manzoni%NULL%1,                          Gesualdo%Muscarella%NULL%1,                          Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                           Xavier%Delabranche%NULL%3,                           Xavier%Delabranche%NULL%0,                           François%Severac%NULL%3,                           François%Severac%NULL%0,                           Julie%Helms%NULL%0,                           Julie%Helms%NULL%0,                           Coralie%Pauzet%NULL%1,                           Olivier%Collange%NULL%1,                           Françis%Schneider%NULL%1,                           Aissam%Labani%NULL%2,                           Aissam%Labani%NULL%0,                           Pascal%Bilbault%NULL%1,                           Sébastien%Moliere%NULL%2,                           Sébastien%Moliere%NULL%0,                           Pierre%Leyendecker%NULL%1,                           Catherine%Roy%NULL%2,                           Catherine%Roy%NULL%0,                           Mickaël%Ohana%mickael.ohana@gmail.com%3,                           Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                           Julien%Behr%NULL%2,                           Julien%Behr%NULL%0,                           Paul%Calame%NULL%1,                           Sébastien%Aubry%NULL%1,                           Eric%Delabrousse%NULL%2,                           Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                           Caroline%Bouzad%NULL%2,                           Caroline%Bouzad%NULL%0,                           Evelyne%Peroux%NULL%1,                           Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                           Rebecca S.%Karp Leaf%NULL%1,                           Walter H.%Dzik%NULL%1,                           Jonathan C.T.%Carlson%NULL%1,                           Annemarie E.%Fogerty%NULL%1,                           Anem%Waheed%NULL%1,                           Katayoon%Goodarzi%NULL%1,                           Pavan K.%Bendapudi%NULL%1,                           Larissa%Bornikova%NULL%1,                           Shruti%Gupta%NULL%1,                           David E.%Leaf%NULL%1,                           David J.%Kuter%NULL%1,                           Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                           Maxime%Leclerc%NULL%1,                           Camille%Chochois%NULL%1,                           Jean‐Michel%Monsallier%NULL%1,                           Michel%Ramakers%NULL%1,                           Malika%Auvray%NULL%1,                           Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                           Charles%Tacquard%NULL%1,                           François%Severac%NULL%0,                           Ian%Leonard-Lorant%NULL%1,                           Mickaël%Ohana%NULL%0,                           Xavier%Delabranche%NULL%0,                           Hamid%Merdji%NULL%1,                           Raphaël%Clere-Jehl%NULL%1,                           Malika%Schenck%NULL%1,                           Florence%Fagot Gandet%NULL%1,                           Samira%Fafi-Kremer%NULL%0,                           Vincent%Castelain%NULL%1,                           Francis%Schneider%NULL%0,                           Lélia%Grunebaum%NULL%1,                           Eduardo%Anglés-Cano%NULL%1,                           Laurent%Sattler%NULL%1,                           Paul-Michel%Mertes%NULL%0,                           Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                           E.%Cervilla-Muñoz%NULL%1,                           L.%Ordieres-Ortega%NULL%1,                           A.%Parra-Virto%NULL%1,                           M.%Toledano-Macías%NULL%1,                           N.%Toledo-Samaniego%NULL%1,                           A.%García-García%NULL%1,                           I.%García-Fernández-Bravo%NULL%1,                           Z.%Ji%NULL%1,                           J.%de-Miguel-Diez%NULL%1,                           L.A.%Álvarez-Sala-Walther%NULL%1,                           J.%del-Toro-Cervera%NULL%1,                           F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                           Shuo%Chen%NULL%1,                           Xiunan%Li%NULL%1,                           Shi%Liu%NULL%1,                           Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                           Michiel%Coppens%NULL%1,                           Thijs F.%van Haaps%NULL%1,                           Merijn%Foppen%NULL%1,                           Alexander P.%Vlaar%NULL%1,                           Marcella C.A.%Müller%NULL%1,                           Catherine C.S.%Bouman%NULL%1,                           Ludo F.M.%Beenen%NULL%1,                           Ruud S.%Kootte%NULL%1,                           Jarom%Heijmans%NULL%1,                           Loek P.%Smits%NULL%1,                           Peter I.%Bonta%NULL%1,                           Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                           Hippolyte%Monnier%NULL%1,                           Ines%Saab%NULL%1,                           Mickael%Tordjman%NULL%1,                           Hendy%Abdoul%NULL%1,                           Laure%Fournier%NULL%1,                           Olivier%Sanchez%NULL%1,                           Christine%Lorut%NULL%1,                           Guillaume%Chassagnon%NULL%1,                           Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                           Elena M.%Bertinato%NULL%1,                           Simone%Birocchi%NULL%1,                           Carolina%Brizio%NULL%1,                           Daniele%Malavolta%NULL%1,                           Marco%Manzoni%NULL%1,                           Gesualdo%Muscarella%NULL%1,                           Michela%Orlandi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1834,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1800,7 +1866,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1832,7 +1898,7 @@
         <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1864,7 +1930,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1896,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1928,7 +1994,7 @@
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1960,7 +2026,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1992,7 +2058,7 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2024,7 +2090,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -2056,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -2088,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -2120,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -2152,7 +2218,7 @@
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2184,7 +2250,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
